--- a/database/sampol.xlsx
+++ b/database/sampol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sampol\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D2C7C-4724-4873-9D23-7DA91CD3432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74FDD00-C62D-4146-BC41-8BB911C8A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="5" xr2:uid="{AFA87E45-921F-4C62-BA0A-FE034DBFB343}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="7" xr2:uid="{AFA87E45-921F-4C62-BA0A-FE034DBFB343}"/>
   </bookViews>
   <sheets>
     <sheet name="dailyvisitstbl" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="690">
   <si>
     <t xml:space="preserve">daily_visitors_id </t>
   </si>
@@ -193,6 +193,1929 @@
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>schooltbl_id</t>
+  </si>
+  <si>
+    <t>school_id</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>school_address</t>
+  </si>
+  <si>
+    <t>school_principal</t>
+  </si>
+  <si>
+    <t>school_contact</t>
+  </si>
+  <si>
+    <t>school_link</t>
+  </si>
+  <si>
+    <t>school_email</t>
+  </si>
+  <si>
+    <t>school_district</t>
+  </si>
+  <si>
+    <t>school_type</t>
+  </si>
+  <si>
+    <t>school_shsAvailability</t>
+  </si>
+  <si>
+    <t>school_spedAvailablity</t>
+  </si>
+  <si>
+    <t>school_status</t>
+  </si>
+  <si>
+    <t>Amado V. Hernandez</t>
+  </si>
+  <si>
+    <t>Bo. Magsaysay, Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Emmanuel R. Soriano</t>
+  </si>
+  <si>
+    <t>8-289-6962</t>
+  </si>
+  <si>
+    <t>Arsenio H. Lacson</t>
+  </si>
+  <si>
+    <t>Younger St,  Balut Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Jenneth P. Salanga</t>
+  </si>
+  <si>
+    <t>8-523-0618</t>
+  </si>
+  <si>
+    <t>Emilio Jacinto</t>
+  </si>
+  <si>
+    <t>Velasquez St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Minerva M. Rosco</t>
+  </si>
+  <si>
+    <t>8-244-1015</t>
+  </si>
+  <si>
+    <t>Isabelo Delos Reyes</t>
+  </si>
+  <si>
+    <t>Morga-Sande St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Eleodora B. Vergara</t>
+  </si>
+  <si>
+    <t>8-242-3823</t>
+  </si>
+  <si>
+    <t>Jose Corazon De Jesus</t>
+  </si>
+  <si>
+    <t>N. Zamora St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Emmalyn F. Fortunato-Csiki</t>
+  </si>
+  <si>
+    <t>8-354-5734</t>
+  </si>
+  <si>
+    <t>Jose Rizal</t>
+  </si>
+  <si>
+    <t>Tayuman-Pingkian St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Marilou S. Calma</t>
+  </si>
+  <si>
+    <t>8-354-7207</t>
+  </si>
+  <si>
+    <t>Magat Salamat</t>
+  </si>
+  <si>
+    <t>1429 Sta. Maria St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Blesilda B. Cueto</t>
+  </si>
+  <si>
+    <t>8-254-6334</t>
+  </si>
+  <si>
+    <t>Manuel L. Quezon (ES)</t>
+  </si>
+  <si>
+    <t>Perla-Verona St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Marcelo D. Mislang</t>
+  </si>
+  <si>
+    <t>8-254-6158</t>
+  </si>
+  <si>
+    <t>Rosauro Almario</t>
+  </si>
+  <si>
+    <t>Kagitingan St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Graciano A. Budoy, Jr.</t>
+  </si>
+  <si>
+    <t>8-254-1376</t>
+  </si>
+  <si>
+    <t>Teodoro R. Yangco</t>
+  </si>
+  <si>
+    <t>Franco-Dandan St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Romencio L. Rubio</t>
+  </si>
+  <si>
+    <t>8-252-2738</t>
+  </si>
+  <si>
+    <t>Timoteo Paez (ES)</t>
+  </si>
+  <si>
+    <t>Nepa St. Balut, Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Marlyn L. Osunero</t>
+  </si>
+  <si>
+    <t>8-809-9290</t>
+  </si>
+  <si>
+    <t>Gen. Vicente Lim</t>
+  </si>
+  <si>
+    <t>Roxas St. Magsaysay Village Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Belinda V. Dionisio</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Arsenio C. Herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santos Teodoro St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Novem Tenero</t>
+  </si>
+  <si>
+    <t>8-365-5167</t>
+  </si>
+  <si>
+    <t>Barrio Obrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narra Ext. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Rosana G. Ramos</t>
+  </si>
+  <si>
+    <t>8-362-4966</t>
+  </si>
+  <si>
+    <t>Francisco Benitez</t>
+  </si>
+  <si>
+    <t>143 Solis St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Violeta S. Labang</t>
+  </si>
+  <si>
+    <t>8-241-3524</t>
+  </si>
+  <si>
+    <t>Gregoria De Jesus</t>
+  </si>
+  <si>
+    <t>Dagupan-Bulacan St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Nichol Wayne F. Fabonan</t>
+  </si>
+  <si>
+    <t>8-255-2079</t>
+  </si>
+  <si>
+    <t>Gregorio Del Pilar</t>
+  </si>
+  <si>
+    <t>Abad Santos-Recto St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Conchita P. Guiyab</t>
+  </si>
+  <si>
+    <t>8-353-7418</t>
+  </si>
+  <si>
+    <t>Lakan Dula (ES)</t>
+  </si>
+  <si>
+    <t>154 Solis St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Marites P. Labaguez</t>
+  </si>
+  <si>
+    <t>8-254-9113</t>
+  </si>
+  <si>
+    <t>Lapu-Lapu</t>
+  </si>
+  <si>
+    <t>Molave Cor. Morong St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nieves R. Lising </t>
+  </si>
+  <si>
+    <t>8-254-2342</t>
+  </si>
+  <si>
+    <t>Librada Avelino</t>
+  </si>
+  <si>
+    <t>Sunog-Apog St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Dancel A. Udquim</t>
+  </si>
+  <si>
+    <t>8-748-4475</t>
+  </si>
+  <si>
+    <t>Mariano Ponce</t>
+  </si>
+  <si>
+    <t>Bugallon-T. Mapua St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Jose B. Bustillo Jr.</t>
+  </si>
+  <si>
+    <t>8-354-2109</t>
+  </si>
+  <si>
+    <t>Gen. Maximino Hizon</t>
+  </si>
+  <si>
+    <t>Velasquez St., Tondo Manila</t>
+  </si>
+  <si>
+    <t>Ms. Divina Gracia M. Barrientos</t>
+  </si>
+  <si>
+    <t>8-254-6162</t>
+  </si>
+  <si>
+    <t>Melchora Aquino</t>
+  </si>
+  <si>
+    <t>Solis St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Jonathan R. Guillermo</t>
+  </si>
+  <si>
+    <t>8-254-0264</t>
+  </si>
+  <si>
+    <t>Plaridel</t>
+  </si>
+  <si>
+    <t>398 Solis St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Cecilia O. Barnachia</t>
+  </si>
+  <si>
+    <t>8-290-8897</t>
+  </si>
+  <si>
+    <t>CENTEX</t>
+  </si>
+  <si>
+    <t>J. Abad Santos Ave.-Recto Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Gary Z. Regala</t>
+  </si>
+  <si>
+    <t>8-523-1077</t>
+  </si>
+  <si>
+    <t>Felipe G. Calderon (ES)</t>
+  </si>
+  <si>
+    <t>Morong-Limay-Manuguit St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. John Francis S.  Tiamzon</t>
+  </si>
+  <si>
+    <t>7-7005-1371</t>
+  </si>
+  <si>
+    <t>Andres Bonifacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tayuman-Ipil St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Olivia B. Joaquin</t>
+  </si>
+  <si>
+    <t>8-523-8558</t>
+  </si>
+  <si>
+    <t>Antonio Luna</t>
+  </si>
+  <si>
+    <t>2701 Lico St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Judy V. Sampang</t>
+  </si>
+  <si>
+    <t>7-120-6930</t>
+  </si>
+  <si>
+    <t>Apolinario Mabini</t>
+  </si>
+  <si>
+    <t>Severino-Soler St. Quiapo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Maria Cereza Amparo A. Maguyon</t>
+  </si>
+  <si>
+    <t>8-643-8750</t>
+  </si>
+  <si>
+    <t>Antonio Regidor</t>
+  </si>
+  <si>
+    <t>T. Alonzo St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Sheruel F. Mamaril</t>
+  </si>
+  <si>
+    <t>8-255-1289</t>
+  </si>
+  <si>
+    <t>Cecilio Apostol</t>
+  </si>
+  <si>
+    <t>Tayabas-F. Huertas St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Rosmito A. Rodriguez, Jr.</t>
+  </si>
+  <si>
+    <t>8-353-5842</t>
+  </si>
+  <si>
+    <t>Eriberto Remigio</t>
+  </si>
+  <si>
+    <t>Oroquieta Ext. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Carlos S. Llarina</t>
+  </si>
+  <si>
+    <t>8-671-5660</t>
+  </si>
+  <si>
+    <t>Francisco Balagtas</t>
+  </si>
+  <si>
+    <t>Alvarez-Ipil St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Ruth R. Ramirez</t>
+  </si>
+  <si>
+    <t>8-711-8194</t>
+  </si>
+  <si>
+    <t>Juan Sumulong</t>
+  </si>
+  <si>
+    <t>253 Aragon St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Susana C. Nening</t>
+  </si>
+  <si>
+    <t>8-711-0586</t>
+  </si>
+  <si>
+    <t>Marcela Agoncillo</t>
+  </si>
+  <si>
+    <t>Madrid-San Nicolas St. Binondo, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Maria Elena B. Mercado</t>
+  </si>
+  <si>
+    <t>7-005-7522</t>
+  </si>
+  <si>
+    <t>Padre Mariano Gomez</t>
+  </si>
+  <si>
+    <t>1224 P. Guevarra St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Wilfredo C. Nillo</t>
+  </si>
+  <si>
+    <t>8-736-3288</t>
+  </si>
+  <si>
+    <t>Pedro Guevara</t>
+  </si>
+  <si>
+    <t>San Fernando-San Nicolas St. Binondo, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Noel L. Gelua</t>
+  </si>
+  <si>
+    <t>8-651-1539</t>
+  </si>
+  <si>
+    <t>Dr. Alejandro Albert</t>
+  </si>
+  <si>
+    <t>Dapitan Cor. Casa?as St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Rexie M. Castro</t>
+  </si>
+  <si>
+    <t>8-741-2396</t>
+  </si>
+  <si>
+    <t>Benigno Aldana</t>
+  </si>
+  <si>
+    <t>J. Fajardo St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Rizalina V. Castro</t>
+  </si>
+  <si>
+    <t>7-003-0728</t>
+  </si>
+  <si>
+    <t>Benito Legarda</t>
+  </si>
+  <si>
+    <t>J. Fajardo-P. Leoncio St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Edita F. Lopez</t>
+  </si>
+  <si>
+    <t>8-524-9981</t>
+  </si>
+  <si>
+    <t>Graciano Lopez-Jaena</t>
+  </si>
+  <si>
+    <t>Matimyas St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Aireen N. Perez</t>
+  </si>
+  <si>
+    <t>8-852-5032</t>
+  </si>
+  <si>
+    <t>Juan Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 830 Catalu?a St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Fernando N. Magalang</t>
+  </si>
+  <si>
+    <t>7-116-9642/8-363-714-7368</t>
+  </si>
+  <si>
+    <t>Gen. Licerio Geronimo</t>
+  </si>
+  <si>
+    <t>537 Geronimo St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Rodelio O. Ritual</t>
+  </si>
+  <si>
+    <t>8-354-0900</t>
+  </si>
+  <si>
+    <t>Laong Laan</t>
+  </si>
+  <si>
+    <t>Laong Laan Cor. Blumentritt St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Uldarico G. Fundal Jr.</t>
+  </si>
+  <si>
+    <t>8-256-9716</t>
+  </si>
+  <si>
+    <t>Gen. Miguel Malvar</t>
+  </si>
+  <si>
+    <t>Mangga Ave. Sta. Mesa, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Marlnie T. Dela Cruz</t>
+  </si>
+  <si>
+    <t>8-713-0654</t>
+  </si>
+  <si>
+    <t>Moises Salvador</t>
+  </si>
+  <si>
+    <t>Geronimo St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Jerome M. Macanda</t>
+  </si>
+  <si>
+    <t>8-521-1875</t>
+  </si>
+  <si>
+    <t>Padre Burgos</t>
+  </si>
+  <si>
+    <t>Buenos Aires-Altura St. Sta. Mesa, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Trinidad R. Galang</t>
+  </si>
+  <si>
+    <t>8-713-0652</t>
+  </si>
+  <si>
+    <t>Pedro Pelaez</t>
+  </si>
+  <si>
+    <t>D. Santiago St. Sta. Mesa, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Vladimir B. Paraiso</t>
+  </si>
+  <si>
+    <t>7-118-0355</t>
+  </si>
+  <si>
+    <t>Trinidad Tecson</t>
+  </si>
+  <si>
+    <t>510 Geronimo St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Maria Milagros R. Nonog</t>
+  </si>
+  <si>
+    <t>8-296-0804</t>
+  </si>
+  <si>
+    <t>Antonio Maceda (ES)</t>
+  </si>
+  <si>
+    <t>Ms. Jinabelle V. Prieto</t>
+  </si>
+  <si>
+    <t>8-714-7368</t>
+  </si>
+  <si>
+    <t>Valeriano E. Fugoso (ES)</t>
+  </si>
+  <si>
+    <t>Manila Boystown Complex, Marikina City</t>
+  </si>
+  <si>
+    <t>Mr. Josefino A. Mendoza II</t>
+  </si>
+  <si>
+    <t>8-934-6254</t>
+  </si>
+  <si>
+    <t>Aurora A. Quezon</t>
+  </si>
+  <si>
+    <t>San Andres St. Malate, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Randy R. Emen</t>
+  </si>
+  <si>
+    <t>Celedonio Salvador</t>
+  </si>
+  <si>
+    <t>Merced St. Paco, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Novielyn F. Radam</t>
+  </si>
+  <si>
+    <t>8-563-7197</t>
+  </si>
+  <si>
+    <t>Epifanio Delos Santos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1725 Singalong-Malvar St. Malate, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Guia S. Laguitao</t>
+  </si>
+  <si>
+    <t>8-525-7173</t>
+  </si>
+  <si>
+    <t>Fernando Ma. Guerrero</t>
+  </si>
+  <si>
+    <t>Pedro Gil-Onyx St. Paco, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Josepina D. Villareal</t>
+  </si>
+  <si>
+    <t>8-722-7480</t>
+  </si>
+  <si>
+    <t>Herminigildo J. Atienza</t>
+  </si>
+  <si>
+    <t>Port Area, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Agustin C. Baldicanas</t>
+  </si>
+  <si>
+    <t>8-241-7559</t>
+  </si>
+  <si>
+    <t>Justo Lukban</t>
+  </si>
+  <si>
+    <t>G. Apacible St. Paco, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Reynora V. Laurenciano</t>
+  </si>
+  <si>
+    <t>8-525-8016</t>
+  </si>
+  <si>
+    <t>Margarita Roxas de Ayala</t>
+  </si>
+  <si>
+    <t>A. Francisco cor. Arellano Sts. Sta Ana, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Rosemarie B. Ponce</t>
+  </si>
+  <si>
+    <t>8-563-1438</t>
+  </si>
+  <si>
+    <t>Rafael Palma</t>
+  </si>
+  <si>
+    <t>Vito Cruz-Zobel Roxas St. Manila</t>
+  </si>
+  <si>
+    <t>Mr. Rodel C. Sampang</t>
+  </si>
+  <si>
+    <t>8-895-7416</t>
+  </si>
+  <si>
+    <t>Sen. Benigno Aquino Jr.</t>
+  </si>
+  <si>
+    <t>Mr. Jose R. MiÃ±ano</t>
+  </si>
+  <si>
+    <t>7-277-4530</t>
+  </si>
+  <si>
+    <t>Silahis ng Katarungan</t>
+  </si>
+  <si>
+    <t>1520 Paz St. Paco, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Ma. Gemma C. Perucho</t>
+  </si>
+  <si>
+    <t>8-658-7030</t>
+  </si>
+  <si>
+    <t>Bacood</t>
+  </si>
+  <si>
+    <t>Mag. Albert St. Sta. Mesa, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Leo C. Cabaruan</t>
+  </si>
+  <si>
+    <t>7-119-6532</t>
+  </si>
+  <si>
+    <t>Bagong Barangay</t>
+  </si>
+  <si>
+    <t>Zamora St. Pandacan, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Maria Bernadeth A. Pablo</t>
+  </si>
+  <si>
+    <t>8-523-8895</t>
+  </si>
+  <si>
+    <t>Bagong Diwa</t>
+  </si>
+  <si>
+    <t>Linceo-Adonis St. Pandacan, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Antonio C. Lagundi</t>
+  </si>
+  <si>
+    <t>8-562-1027</t>
+  </si>
+  <si>
+    <t>Beata</t>
+  </si>
+  <si>
+    <t>Beata Cor. Certeza St. Pandacan, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Benjamin M. Castro</t>
+  </si>
+  <si>
+    <t>8-288-3662</t>
+  </si>
+  <si>
+    <t>Fernando Amorsolo</t>
+  </si>
+  <si>
+    <t>Old Panaderos St. Sta. Ana, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Philip Marciano D.L. Reyes</t>
+  </si>
+  <si>
+    <t>8-563-9986</t>
+  </si>
+  <si>
+    <t>Geronimo Santiago</t>
+  </si>
+  <si>
+    <t>J. Nepomuceno St. San Miguel, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Gil T. Alintana</t>
+  </si>
+  <si>
+    <t>Pio Del Pilar</t>
+  </si>
+  <si>
+    <t>Pureza St. Sta. Mesa, Manila</t>
+  </si>
+  <si>
+    <t>Dr. Meriam B. Collantes</t>
+  </si>
+  <si>
+    <t>8-714-7400</t>
+  </si>
+  <si>
+    <t>Sta. Ana</t>
+  </si>
+  <si>
+    <t>M. Roxas St. Sta. Ana, Manila</t>
+  </si>
+  <si>
+    <t>Mr. Diomedes T. Rosete</t>
+  </si>
+  <si>
+    <t>8-559-7793</t>
+  </si>
+  <si>
+    <t>Tomas Earnshaw</t>
+  </si>
+  <si>
+    <t>A. Bautista Punta Sta. Ana, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Helen B. Bautista</t>
+  </si>
+  <si>
+    <t>8-532-1758</t>
+  </si>
+  <si>
+    <t>Jacinto Zamora</t>
+  </si>
+  <si>
+    <t>E. Zamora St. Pandacan, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Guia S. Morris</t>
+  </si>
+  <si>
+    <t>8-516-8263</t>
+  </si>
+  <si>
+    <t>Gen. Emilio Aguinaldo (ES)</t>
+  </si>
+  <si>
+    <t>Punta Sta. Ana, Manila</t>
+  </si>
+  <si>
+    <t>Ms. Carol H. Salba</t>
+  </si>
+  <si>
+    <t>8-523-1913</t>
+  </si>
+  <si>
+    <t>Dr. Juan G. Nolasco</t>
+  </si>
+  <si>
+    <t>2252 Tioco Park, Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8254-53-49 /8254-99-80</t>
+  </si>
+  <si>
+    <t>Quezon St. Bo. Magsaysay Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8254-55-58 /8251-00-45</t>
+  </si>
+  <si>
+    <t>Timoteo Paez</t>
+  </si>
+  <si>
+    <t>Buendia St. cor. Younger St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8522-90-92</t>
+  </si>
+  <si>
+    <t>Lakan Dula</t>
+  </si>
+  <si>
+    <t>Juan Luna St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8252-97-94 / 8252-50-94</t>
+  </si>
+  <si>
+    <t>Jose P. Laurel</t>
+  </si>
+  <si>
+    <t>Pampanga St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8-715-6883/8-714-3025</t>
+  </si>
+  <si>
+    <t>Pres. Sergio Osmena</t>
+  </si>
+  <si>
+    <t>Earnshaw St. Cor. Bulacan St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8-708-2082</t>
+  </si>
+  <si>
+    <t>Florentino Torres</t>
+  </si>
+  <si>
+    <t>Juan Luna St. Gagalangin Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8-252-5467</t>
+  </si>
+  <si>
+    <t>Blumentritt St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>Felipe G. Calderon</t>
+  </si>
+  <si>
+    <t>Hermosa St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>8253-15-75 /8254-57-11</t>
+  </si>
+  <si>
+    <t>Dona Teodora Alonzo</t>
+  </si>
+  <si>
+    <t>Alvarez St. Cor. Ipil St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>8-807-8669</t>
+  </si>
+  <si>
+    <t>Cayetano Arellano</t>
+  </si>
+  <si>
+    <t>D. Jose-T. Alonzo St. Sta. Cruz, Manila</t>
+  </si>
+  <si>
+    <t>8711-59-28 / 8732-74-04</t>
+  </si>
+  <si>
+    <t>Ramon Avancena</t>
+  </si>
+  <si>
+    <t>J. Nepomuceno St. Quiapo, Manila</t>
+  </si>
+  <si>
+    <t>8-733-9971</t>
+  </si>
+  <si>
+    <t>Jose Abad Santos</t>
+  </si>
+  <si>
+    <t>Urbiztondo-Numancia St. San Nicolas, Manila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8239-96-37 </t>
+  </si>
+  <si>
+    <t>Rajah Soliman</t>
+  </si>
+  <si>
+    <t>Lachambre St. Binondo, Manila</t>
+  </si>
+  <si>
+    <t>8-734-5540/8-735-3476</t>
+  </si>
+  <si>
+    <t>Antonio Maceda (HS)</t>
+  </si>
+  <si>
+    <t>Magsaysay Blvd. Sta. Mesa, Manila</t>
+  </si>
+  <si>
+    <t>8715-68-83 / 8714-30-25</t>
+  </si>
+  <si>
+    <t>Claro M. Recto</t>
+  </si>
+  <si>
+    <t>3rd St., C. Aguila, San Miguel, Manila</t>
+  </si>
+  <si>
+    <t>8734-55-40 / 8735-34-76</t>
+  </si>
+  <si>
+    <t>Valeriano E. Fugoso</t>
+  </si>
+  <si>
+    <t>Parang, Marikina</t>
+  </si>
+  <si>
+    <t>8-625-6778</t>
+  </si>
+  <si>
+    <t>Manuel G. Araullo</t>
+  </si>
+  <si>
+    <t>Taft Ave. Cor. U.N. Ave. Ermita, Manila</t>
+  </si>
+  <si>
+    <t>8-805-8547</t>
+  </si>
+  <si>
+    <t>Manuel A. Roxas</t>
+  </si>
+  <si>
+    <t>Canonigo St. Paco, Manila</t>
+  </si>
+  <si>
+    <t>8353-69-35 /  8562-24-14</t>
+  </si>
+  <si>
+    <t>Manila High</t>
+  </si>
+  <si>
+    <t>Victoria-Muralla St. Intramuros, Manila</t>
+  </si>
+  <si>
+    <t>8-525-4755</t>
+  </si>
+  <si>
+    <t>Manila Science</t>
+  </si>
+  <si>
+    <t>Taft Ave. P. Faura, Manila</t>
+  </si>
+  <si>
+    <t>8-525-6197</t>
+  </si>
+  <si>
+    <t>Pasig Line St. Sta. Ana, Manila</t>
+  </si>
+  <si>
+    <t>Pres. Corazon C. Aquino</t>
+  </si>
+  <si>
+    <t>8546-94-32</t>
+  </si>
+  <si>
+    <t>Victorino Mapa</t>
+  </si>
+  <si>
+    <t>300 San Rafael St. San Miguel, Manila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8353-30-40   </t>
+  </si>
+  <si>
+    <t>Mariano Marcos</t>
+  </si>
+  <si>
+    <t>2090 M. Carreon St. Sta. Ana, Manila</t>
+  </si>
+  <si>
+    <t>8564-28-93 / 8562-01-00</t>
+  </si>
+  <si>
+    <t>Elpidio Quirino</t>
+  </si>
+  <si>
+    <t>Bacood St. Sta Mesa, Manila</t>
+  </si>
+  <si>
+    <t>8559-54-83 / 8256-64-47</t>
+  </si>
+  <si>
+    <t>Carlos P. Garcia</t>
+  </si>
+  <si>
+    <t>Jesus St. Pandacan, Manila</t>
+  </si>
+  <si>
+    <t>8562-76-87</t>
+  </si>
+  <si>
+    <t>Eulogio Rodriguez</t>
+  </si>
+  <si>
+    <t>Nagtahan St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>8714-07-53</t>
+  </si>
+  <si>
+    <t>Gen. Emilio Aguinaldo</t>
+  </si>
+  <si>
+    <t>Punta St. Sta. Ana, Manila</t>
+  </si>
+  <si>
+    <t>8535-17-14</t>
+  </si>
+  <si>
+    <t>avhernandezes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>alacsones.depedmanila.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ejacintoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>idelosreyeses.depedmanila.com</t>
+  </si>
+  <si>
+    <t>jcdejesuses.depedmanila.com</t>
+  </si>
+  <si>
+    <t>joserizales.depedmanila.com</t>
+  </si>
+  <si>
+    <t>magatsalamates.depedmanila.com</t>
+  </si>
+  <si>
+    <t>mlquezones.depedmanila.com</t>
+  </si>
+  <si>
+    <t>raes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>tryangcoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>tpaezes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>gvlimes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>acherreraes.depedmanila.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> barrioobreroes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>fbenitezes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>gdejesuses.depedmanila.com</t>
+  </si>
+  <si>
+    <t>gdelpilares.depedmanila.com</t>
+  </si>
+  <si>
+    <t>lakandulaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>lapulapues.depedmanila.com</t>
+  </si>
+  <si>
+    <t>libradaavelinoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>marianoponcees.depedmanila.com</t>
+  </si>
+  <si>
+    <t>gmhizones.depedmanila.com</t>
+  </si>
+  <si>
+    <t>maquinoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>plarideles.depedmanila.com</t>
+  </si>
+  <si>
+    <t>centexes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>fgcalderones.depedmanila.com</t>
+  </si>
+  <si>
+    <t>abonifacioes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>antoniolunaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>amabinies.depedmanila.com</t>
+  </si>
+  <si>
+    <t>aregidores.depedmanila.com</t>
+  </si>
+  <si>
+    <t>cecilioapostoles.depedmanila.com</t>
+  </si>
+  <si>
+    <t>eres.depedmanila.com</t>
+  </si>
+  <si>
+    <t>fbalagtases.depedmanila.com</t>
+  </si>
+  <si>
+    <t>jsumulonges.depedmanila.com</t>
+  </si>
+  <si>
+    <t>marcelaagoncilloes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>pgomezes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>pguevaraes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>draalbertes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>benignoaldanaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>benitolegardaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>glopezjaenaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>juanlunaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> glgeronimoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> laonglaanes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>gmmalvares.depedmanila.com</t>
+  </si>
+  <si>
+    <t>msalvadores.depedmanila.com</t>
+  </si>
+  <si>
+    <t>pburgoses.depedmanila.com</t>
+  </si>
+  <si>
+    <t>pedropelaezes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>trinidadtecsones.depedmanila.com</t>
+  </si>
+  <si>
+    <t>amacedaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>valerianofugosoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>aaqes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>csalvadores.depedmanila.com</t>
+  </si>
+  <si>
+    <t>edses.depedmanila.com</t>
+  </si>
+  <si>
+    <t>fmges.depedmanila.com</t>
+  </si>
+  <si>
+    <t>hjatienzaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> justolukbanes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>mrdaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>rpalmaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>sbaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>sikat.depedmanila.com</t>
+  </si>
+  <si>
+    <t>bacoodes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>bagongbarangayes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>bagongdiwaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>beataes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>famorsoloes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>gsantiagoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>piodelpilares.depedmanila.com</t>
+  </si>
+  <si>
+    <t>staanaes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>tomasearnshawes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>jzamoraes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>emilioaguinaldoes.depedmanila.com</t>
+  </si>
+  <si>
+    <t>lakandulahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>jplaurelhs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>rajahsolimansths.depedmanila.com</t>
+  </si>
+  <si>
+    <t>amacedahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>maroxashs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>vmapahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>elpidioquirinohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>emilioaguinaldohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>emmanuel.soriano001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>jenneth.salanga@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>minerva.rosco001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>eleodora.vergara001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>emmalyn.fotunato002@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>marilou.calma002@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>blesilda.cueto001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>marcelomislang1972@gmail.com</t>
+  </si>
+  <si>
+    <t>graciano.budoy@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>romencio.rubio004@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>marlyn.osunero001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>belinda.dionisio001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>novem.tenero001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>rosana.ramos003@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>violeta.labang001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>nicholwayne.fabonan@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>conchita.guiyab001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>marites.labaguez001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>nieves.lising001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>dancel.udquim001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>josejr.bustillo@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>divinagracia.barrientos@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>jonathan.guillermo002@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>cecilia.barnachia001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>gary.regala001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>johnfrancis.tiamzon@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>olivia.joaquin@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>judy.sampang001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>cherrymaguyon30@gmail.com</t>
+  </si>
+  <si>
+    <t>sheruel.mamaril002@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>rosmito.rodriguezjr@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>carlos.llarina001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>ruth.ramirez001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>susana.nening001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>mariaelena.mercado003@gmail.com</t>
+  </si>
+  <si>
+    <t>wilfredo.nillo001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>noel.gelua@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>rexie.castro001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>rizalina.castro@deped.gov.ph</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edita.lopez001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>aireen.perez001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>fernando.magalang001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>rodelio.ritual001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>ufundal@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>marlnie.delacruz001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>jerome.macanda001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>trinidad.galang001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>vladimir.paraiso001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>mariamilagros.rimiendo@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>jinabelle.prieto001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>josefino.mendoza001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>randy.emen001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>novielyn.radam001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>guia.laguitao001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>josepina.villareal001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>agustin.baldicanas001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>reynora.laurenciano001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>rosemarie.ponce003@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>rpalmaes.manila@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>jose.minano001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>gemmaperucho@gmail.com</t>
+  </si>
+  <si>
+    <t>leo.cabaruan001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>mariabernadeth.pablo003@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>antonio.lagundi001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>benjamin.castro@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>philip.reyes002@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>gil.alinatana001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>meriam.collantes001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>diomedes.rosete001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>helen.bautista001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>guia.morris001@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>carol.salba002@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>ELEMENTARY SCHOOLS</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Sonny D. Valenzuela</t>
+  </si>
+  <si>
+    <t>drjgnolascohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305288@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Gregorio Perfecto</t>
+  </si>
+  <si>
+    <t>Ricafort St. Tondo, Manila</t>
+  </si>
+  <si>
+    <t>June Hayden R. Sinson</t>
+  </si>
+  <si>
+    <t>8742-46-29 / 8708-85-74</t>
+  </si>
+  <si>
+    <t>gperfectohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305290@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Maria Eva Nacion</t>
+  </si>
+  <si>
+    <t>tondohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305291@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Antonio J. Villegas</t>
+  </si>
+  <si>
+    <t>Bo. Magsaysay Tondo, Manila</t>
+  </si>
+  <si>
+    <t>Lilybeth F. Cuento</t>
+  </si>
+  <si>
+    <t>8354-19-73</t>
+  </si>
+  <si>
+    <t>ajvillegashs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305292@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Amor P. Dugay</t>
+  </si>
+  <si>
+    <t>tpaezhs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>500566@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Merle Angon</t>
+  </si>
+  <si>
+    <t>305295@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Julius Jardiolin</t>
+  </si>
+  <si>
+    <t>305294@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Mark Gil Tabor</t>
+  </si>
+  <si>
+    <t>sergioosmenahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305296@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Eddieza E. Durens</t>
+  </si>
+  <si>
+    <t>8711-26-81</t>
+  </si>
+  <si>
+    <t>mlquezonhs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305297@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Ma. Pura S. Talattad</t>
+  </si>
+  <si>
+    <t>ftorreshs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305298@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Edmund Villareal</t>
+  </si>
+  <si>
+    <t>500567@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Lourdes M. Florendo</t>
+  </si>
+  <si>
+    <t>dtahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305299@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>John Butch P. Locara</t>
+  </si>
+  <si>
+    <t>cayetanoarellanohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305300@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Jeusuel Nonnatus N. De Luna</t>
+  </si>
+  <si>
+    <t>ramonavancenahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305301@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Elena C. Reyes</t>
+  </si>
+  <si>
+    <t>joseabadsantoshs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305302@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Raffy Caballes</t>
+  </si>
+  <si>
+    <t>305303@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Esteban Abada</t>
+  </si>
+  <si>
+    <t>Blumentritt St. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Mary Grace Awkit</t>
+  </si>
+  <si>
+    <t>8-477-2487/8-723-4960</t>
+  </si>
+  <si>
+    <t>estebanabadahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305304@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Danilo B. Estavillo</t>
+  </si>
+  <si>
+    <t>500568@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Ramon Magsaysay</t>
+  </si>
+  <si>
+    <t>Espa?a Blvd. Sampaloc, Manila</t>
+  </si>
+  <si>
+    <t>Gene T. Pangilinan</t>
+  </si>
+  <si>
+    <t>8731-32-25 / 8938-53-46</t>
+  </si>
+  <si>
+    <t>ramonmagsaysayhs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305306@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Mercedita Insigne</t>
+  </si>
+  <si>
+    <t>cmrectohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305307@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Josefino Mendoza</t>
+  </si>
+  <si>
+    <t>valerianofugosohs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305308@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Mayet R. Dela Cruz</t>
+  </si>
+  <si>
+    <t>mgaraullo.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305309@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Roland Dela Cruz</t>
+  </si>
+  <si>
+    <t>305318@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Melanie T. Pascua</t>
+  </si>
+  <si>
+    <t>manilahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305311@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Manolo G. PeÃ±a</t>
+  </si>
+  <si>
+    <t>manilasciencehs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305312@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Dante Felizardo, Ed. D.</t>
+  </si>
+  <si>
+    <t>8563-21-08</t>
+  </si>
+  <si>
+    <t>ignaciovillamorhs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305313@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Ma. Josefina B. Luna</t>
+  </si>
+  <si>
+    <t>pccahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>319401@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Robert P. Velasquez</t>
+  </si>
+  <si>
+    <t>305315@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Consolacion K. Naanep</t>
+  </si>
+  <si>
+    <t>mmmhs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305316@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Ma. Teresa Custodio</t>
+  </si>
+  <si>
+    <t>305317@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Diosdado DG. Florendo</t>
+  </si>
+  <si>
+    <t>cpgarciahs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305310@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Divina T. Maninang</t>
+  </si>
+  <si>
+    <t>ervhs.depedmanila.com</t>
+  </si>
+  <si>
+    <t>305319@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>Nilo T. Salazar</t>
+  </si>
+  <si>
+    <t>500569@deped.gov.ph</t>
+  </si>
+  <si>
+    <t>JUNIOR HIGH SCHOOLS</t>
+  </si>
+  <si>
+    <t>Tondo High School</t>
+  </si>
+  <si>
+    <t>Manuel L. Quezon</t>
+  </si>
+  <si>
+    <t>Ignacio Villamor</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -815,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97752762-C807-4A6C-8E2A-DC0DCC77CC20}">
   <dimension ref="A1:H3523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -29098,14 +31021,4062 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DE8426-B8CF-4E61-9189-DC1E12015617}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="95" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>136436</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>579</v>
+      </c>
+      <c r="K2" t="s">
+        <v>580</v>
+      </c>
+      <c r="L2" t="s">
+        <v>580</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>136430</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>579</v>
+      </c>
+      <c r="K3" t="s">
+        <v>580</v>
+      </c>
+      <c r="L3" t="s">
+        <v>580</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>136433</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H4" t="s">
+        <v>509</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>579</v>
+      </c>
+      <c r="K4" t="s">
+        <v>580</v>
+      </c>
+      <c r="L4" t="s">
+        <v>580</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>136439</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>579</v>
+      </c>
+      <c r="K5" t="s">
+        <v>580</v>
+      </c>
+      <c r="L5" t="s">
+        <v>580</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>136440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>511</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>579</v>
+      </c>
+      <c r="K6" t="s">
+        <v>580</v>
+      </c>
+      <c r="L6" t="s">
+        <v>580</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>136432</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" t="s">
+        <v>512</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>136438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" t="s">
+        <v>513</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>579</v>
+      </c>
+      <c r="K8" t="s">
+        <v>580</v>
+      </c>
+      <c r="L8" t="s">
+        <v>580</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>136437</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H9" t="s">
+        <v>514</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>579</v>
+      </c>
+      <c r="K9" t="s">
+        <v>580</v>
+      </c>
+      <c r="L9" t="s">
+        <v>580</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>136441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H10" t="s">
+        <v>515</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>579</v>
+      </c>
+      <c r="K10" t="s">
+        <v>580</v>
+      </c>
+      <c r="L10" t="s">
+        <v>580</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>136435</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" t="s">
+        <v>516</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>579</v>
+      </c>
+      <c r="K11" t="s">
+        <v>580</v>
+      </c>
+      <c r="L11" t="s">
+        <v>580</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>500566</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" t="s">
+        <v>517</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>579</v>
+      </c>
+      <c r="K12" t="s">
+        <v>580</v>
+      </c>
+      <c r="L12" t="s">
+        <v>580</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>136434</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" t="s">
+        <v>518</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>579</v>
+      </c>
+      <c r="K13" t="s">
+        <v>580</v>
+      </c>
+      <c r="L13" t="s">
+        <v>580</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>136418</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>439</v>
+      </c>
+      <c r="H14" t="s">
+        <v>519</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>579</v>
+      </c>
+      <c r="K14" t="s">
+        <v>580</v>
+      </c>
+      <c r="L14" t="s">
+        <v>580</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>136419</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>440</v>
+      </c>
+      <c r="H15" t="s">
+        <v>520</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>579</v>
+      </c>
+      <c r="K15" t="s">
+        <v>580</v>
+      </c>
+      <c r="L15" t="s">
+        <v>580</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>136426</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>441</v>
+      </c>
+      <c r="H16" t="s">
+        <v>521</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>579</v>
+      </c>
+      <c r="K16" t="s">
+        <v>580</v>
+      </c>
+      <c r="L16" t="s">
+        <v>580</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>136428</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" t="s">
+        <v>522</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>579</v>
+      </c>
+      <c r="K17" t="s">
+        <v>580</v>
+      </c>
+      <c r="L17" t="s">
+        <v>580</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>136443</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H18" t="s">
+        <v>523</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>579</v>
+      </c>
+      <c r="K18" t="s">
+        <v>580</v>
+      </c>
+      <c r="L18" t="s">
+        <v>580</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>136427</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>444</v>
+      </c>
+      <c r="H19" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>579</v>
+      </c>
+      <c r="K19" t="s">
+        <v>580</v>
+      </c>
+      <c r="L19" t="s">
+        <v>580</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>136421</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" t="s">
+        <v>445</v>
+      </c>
+      <c r="H20" t="s">
+        <v>525</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>579</v>
+      </c>
+      <c r="K20" t="s">
+        <v>580</v>
+      </c>
+      <c r="L20" t="s">
+        <v>580</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>136429</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>446</v>
+      </c>
+      <c r="H21" t="s">
+        <v>526</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>579</v>
+      </c>
+      <c r="K21" t="s">
+        <v>580</v>
+      </c>
+      <c r="L21" t="s">
+        <v>580</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>136423</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>447</v>
+      </c>
+      <c r="H22" t="s">
+        <v>527</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>579</v>
+      </c>
+      <c r="K22" t="s">
+        <v>580</v>
+      </c>
+      <c r="L22" t="s">
+        <v>580</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>136444</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>448</v>
+      </c>
+      <c r="H23" t="s">
+        <v>528</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>579</v>
+      </c>
+      <c r="K23" t="s">
+        <v>580</v>
+      </c>
+      <c r="L23" t="s">
+        <v>580</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>136424</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>449</v>
+      </c>
+      <c r="H24" t="s">
+        <v>529</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>579</v>
+      </c>
+      <c r="K24" t="s">
+        <v>580</v>
+      </c>
+      <c r="L24" t="s">
+        <v>580</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>136425</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>450</v>
+      </c>
+      <c r="H25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>579</v>
+      </c>
+      <c r="K25" t="s">
+        <v>580</v>
+      </c>
+      <c r="L25" t="s">
+        <v>580</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>136445</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>451</v>
+      </c>
+      <c r="H26" t="s">
+        <v>531</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>579</v>
+      </c>
+      <c r="K26" t="s">
+        <v>580</v>
+      </c>
+      <c r="L26" t="s">
+        <v>580</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>500567</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" t="s">
+        <v>452</v>
+      </c>
+      <c r="H27" t="s">
+        <v>532</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>579</v>
+      </c>
+      <c r="K27" t="s">
+        <v>580</v>
+      </c>
+      <c r="L27" t="s">
+        <v>580</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>136446</v>
+      </c>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>453</v>
+      </c>
+      <c r="H28" t="s">
+        <v>533</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>579</v>
+      </c>
+      <c r="K28" t="s">
+        <v>580</v>
+      </c>
+      <c r="L28" t="s">
+        <v>580</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>136422</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" t="s">
+        <v>454</v>
+      </c>
+      <c r="H29" t="s">
+        <v>534</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>579</v>
+      </c>
+      <c r="K29" t="s">
+        <v>580</v>
+      </c>
+      <c r="L29" t="s">
+        <v>580</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>136453</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" t="s">
+        <v>455</v>
+      </c>
+      <c r="H30" t="s">
+        <v>535</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>579</v>
+      </c>
+      <c r="K30" t="s">
+        <v>580</v>
+      </c>
+      <c r="L30" t="s">
+        <v>580</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>136450</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
+        <v>456</v>
+      </c>
+      <c r="H31" t="s">
+        <v>536</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>579</v>
+      </c>
+      <c r="K31" t="s">
+        <v>580</v>
+      </c>
+      <c r="L31" t="s">
+        <v>580</v>
+      </c>
+      <c r="M31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>136448</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" t="s">
+        <v>457</v>
+      </c>
+      <c r="H32" t="s">
+        <v>537</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>579</v>
+      </c>
+      <c r="K32" t="s">
+        <v>580</v>
+      </c>
+      <c r="L32" t="s">
+        <v>580</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>136447</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" t="s">
+        <v>458</v>
+      </c>
+      <c r="H33" t="s">
+        <v>538</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>579</v>
+      </c>
+      <c r="K33" t="s">
+        <v>580</v>
+      </c>
+      <c r="L33" t="s">
+        <v>580</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>136451</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="s">
+        <v>459</v>
+      </c>
+      <c r="H34" t="s">
+        <v>539</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>579</v>
+      </c>
+      <c r="K34" t="s">
+        <v>580</v>
+      </c>
+      <c r="L34" t="s">
+        <v>580</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>136449</v>
+      </c>
+      <c r="C35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" t="s">
+        <v>460</v>
+      </c>
+      <c r="H35" t="s">
+        <v>540</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>579</v>
+      </c>
+      <c r="K35" t="s">
+        <v>580</v>
+      </c>
+      <c r="L35" t="s">
+        <v>580</v>
+      </c>
+      <c r="M35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>136455</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
+        <v>461</v>
+      </c>
+      <c r="H36" t="s">
+        <v>541</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>579</v>
+      </c>
+      <c r="K36" t="s">
+        <v>580</v>
+      </c>
+      <c r="L36" t="s">
+        <v>580</v>
+      </c>
+      <c r="M36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>136452</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" t="s">
+        <v>462</v>
+      </c>
+      <c r="H37" t="s">
+        <v>542</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>579</v>
+      </c>
+      <c r="K37" t="s">
+        <v>580</v>
+      </c>
+      <c r="L37" t="s">
+        <v>580</v>
+      </c>
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>136456</v>
+      </c>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" t="s">
+        <v>463</v>
+      </c>
+      <c r="H38" t="s">
+        <v>543</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>579</v>
+      </c>
+      <c r="K38" t="s">
+        <v>580</v>
+      </c>
+      <c r="L38" t="s">
+        <v>580</v>
+      </c>
+      <c r="M38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>136457</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="s">
+        <v>464</v>
+      </c>
+      <c r="H39" t="s">
+        <v>544</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>579</v>
+      </c>
+      <c r="K39" t="s">
+        <v>580</v>
+      </c>
+      <c r="L39" t="s">
+        <v>580</v>
+      </c>
+      <c r="M39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>136459</v>
+      </c>
+      <c r="C40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" t="s">
+        <v>465</v>
+      </c>
+      <c r="H40" t="s">
+        <v>545</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>579</v>
+      </c>
+      <c r="K40" t="s">
+        <v>580</v>
+      </c>
+      <c r="L40" t="s">
+        <v>580</v>
+      </c>
+      <c r="M40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>136461</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" t="s">
+        <v>466</v>
+      </c>
+      <c r="H41" t="s">
+        <v>546</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>579</v>
+      </c>
+      <c r="K41" t="s">
+        <v>580</v>
+      </c>
+      <c r="L41" t="s">
+        <v>580</v>
+      </c>
+      <c r="M41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>136460</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H42" t="s">
+        <v>547</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>579</v>
+      </c>
+      <c r="K42" t="s">
+        <v>580</v>
+      </c>
+      <c r="L42" t="s">
+        <v>580</v>
+      </c>
+      <c r="M42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>136465</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" t="s">
+        <v>468</v>
+      </c>
+      <c r="H43" t="s">
+        <v>548</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>579</v>
+      </c>
+      <c r="K43" t="s">
+        <v>580</v>
+      </c>
+      <c r="L43" t="s">
+        <v>580</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>136462</v>
+      </c>
+      <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" t="s">
+        <v>469</v>
+      </c>
+      <c r="H44" t="s">
+        <v>549</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>579</v>
+      </c>
+      <c r="K44" t="s">
+        <v>580</v>
+      </c>
+      <c r="L44" t="s">
+        <v>580</v>
+      </c>
+      <c r="M44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>136458</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" t="s">
+        <v>470</v>
+      </c>
+      <c r="H45" t="s">
+        <v>550</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>579</v>
+      </c>
+      <c r="K45" t="s">
+        <v>580</v>
+      </c>
+      <c r="L45" t="s">
+        <v>580</v>
+      </c>
+      <c r="M45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>136470</v>
+      </c>
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" t="s">
+        <v>471</v>
+      </c>
+      <c r="H46" t="s">
+        <v>551</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>579</v>
+      </c>
+      <c r="K46" t="s">
+        <v>580</v>
+      </c>
+      <c r="L46" t="s">
+        <v>580</v>
+      </c>
+      <c r="M46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>136464</v>
+      </c>
+      <c r="C47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" t="s">
+        <v>472</v>
+      </c>
+      <c r="H47" t="s">
+        <v>552</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>579</v>
+      </c>
+      <c r="K47" t="s">
+        <v>580</v>
+      </c>
+      <c r="L47" t="s">
+        <v>580</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>136467</v>
+      </c>
+      <c r="C48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" t="s">
+        <v>247</v>
+      </c>
+      <c r="E48" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" t="s">
+        <v>249</v>
+      </c>
+      <c r="G48" t="s">
+        <v>473</v>
+      </c>
+      <c r="H48" t="s">
+        <v>553</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>579</v>
+      </c>
+      <c r="K48" t="s">
+        <v>580</v>
+      </c>
+      <c r="L48" t="s">
+        <v>580</v>
+      </c>
+      <c r="M48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>136468</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49" t="s">
+        <v>474</v>
+      </c>
+      <c r="H49" t="s">
+        <v>554</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>579</v>
+      </c>
+      <c r="K49" t="s">
+        <v>580</v>
+      </c>
+      <c r="L49" t="s">
+        <v>580</v>
+      </c>
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>136463</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D50" t="s">
+        <v>255</v>
+      </c>
+      <c r="E50" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" t="s">
+        <v>475</v>
+      </c>
+      <c r="H50" t="s">
+        <v>555</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>579</v>
+      </c>
+      <c r="K50" t="s">
+        <v>580</v>
+      </c>
+      <c r="L50" t="s">
+        <v>580</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>500568</v>
+      </c>
+      <c r="C51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" t="s">
+        <v>260</v>
+      </c>
+      <c r="G51" t="s">
+        <v>476</v>
+      </c>
+      <c r="H51" t="s">
+        <v>556</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>579</v>
+      </c>
+      <c r="K51" t="s">
+        <v>580</v>
+      </c>
+      <c r="L51" t="s">
+        <v>580</v>
+      </c>
+      <c r="M51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>136466</v>
+      </c>
+      <c r="C52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" t="s">
+        <v>263</v>
+      </c>
+      <c r="F52" t="s">
+        <v>264</v>
+      </c>
+      <c r="G52" t="s">
+        <v>477</v>
+      </c>
+      <c r="H52" t="s">
+        <v>557</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>579</v>
+      </c>
+      <c r="K52" t="s">
+        <v>580</v>
+      </c>
+      <c r="L52" t="s">
+        <v>580</v>
+      </c>
+      <c r="M52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>136477</v>
+      </c>
+      <c r="C53" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" t="s">
+        <v>478</v>
+      </c>
+      <c r="H53" t="s">
+        <v>558</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>579</v>
+      </c>
+      <c r="K53" t="s">
+        <v>580</v>
+      </c>
+      <c r="L53" t="s">
+        <v>580</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>136474</v>
+      </c>
+      <c r="C54" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" t="s">
+        <v>271</v>
+      </c>
+      <c r="G54" t="s">
+        <v>479</v>
+      </c>
+      <c r="H54" t="s">
+        <v>559</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>579</v>
+      </c>
+      <c r="K54" t="s">
+        <v>580</v>
+      </c>
+      <c r="L54" t="s">
+        <v>580</v>
+      </c>
+      <c r="M54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>136476</v>
+      </c>
+      <c r="C55" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" t="s">
+        <v>480</v>
+      </c>
+      <c r="H55" t="s">
+        <v>560</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>579</v>
+      </c>
+      <c r="K55" t="s">
+        <v>580</v>
+      </c>
+      <c r="L55" t="s">
+        <v>580</v>
+      </c>
+      <c r="M55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>136484</v>
+      </c>
+      <c r="C56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E56" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56" t="s">
+        <v>279</v>
+      </c>
+      <c r="G56" t="s">
+        <v>481</v>
+      </c>
+      <c r="H56" t="s">
+        <v>561</v>
+      </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>579</v>
+      </c>
+      <c r="K56" t="s">
+        <v>580</v>
+      </c>
+      <c r="L56" t="s">
+        <v>580</v>
+      </c>
+      <c r="M56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>136478</v>
+      </c>
+      <c r="C57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" t="s">
+        <v>281</v>
+      </c>
+      <c r="E57" t="s">
+        <v>282</v>
+      </c>
+      <c r="F57" t="s">
+        <v>283</v>
+      </c>
+      <c r="G57" t="s">
+        <v>482</v>
+      </c>
+      <c r="H57" t="s">
+        <v>562</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>579</v>
+      </c>
+      <c r="K57" t="s">
+        <v>580</v>
+      </c>
+      <c r="L57" t="s">
+        <v>580</v>
+      </c>
+      <c r="M57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>136473</v>
+      </c>
+      <c r="C58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" t="s">
+        <v>287</v>
+      </c>
+      <c r="G58" t="s">
+        <v>483</v>
+      </c>
+      <c r="H58" t="s">
+        <v>563</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>579</v>
+      </c>
+      <c r="K58" t="s">
+        <v>580</v>
+      </c>
+      <c r="L58" t="s">
+        <v>580</v>
+      </c>
+      <c r="M58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>136487</v>
+      </c>
+      <c r="C59" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" t="s">
+        <v>484</v>
+      </c>
+      <c r="H59" t="s">
+        <v>564</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>579</v>
+      </c>
+      <c r="K59" t="s">
+        <v>580</v>
+      </c>
+      <c r="L59" t="s">
+        <v>580</v>
+      </c>
+      <c r="M59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>136479</v>
+      </c>
+      <c r="C60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" t="s">
+        <v>295</v>
+      </c>
+      <c r="G60" t="s">
+        <v>485</v>
+      </c>
+      <c r="H60" t="s">
+        <v>565</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>579</v>
+      </c>
+      <c r="K60" t="s">
+        <v>580</v>
+      </c>
+      <c r="L60" t="s">
+        <v>580</v>
+      </c>
+      <c r="M60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>136968</v>
+      </c>
+      <c r="C61" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" t="s">
+        <v>486</v>
+      </c>
+      <c r="H61" t="s">
+        <v>566</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61" t="s">
+        <v>579</v>
+      </c>
+      <c r="K61" t="s">
+        <v>580</v>
+      </c>
+      <c r="L61" t="s">
+        <v>580</v>
+      </c>
+      <c r="M61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>136475</v>
+      </c>
+      <c r="C62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" t="s">
+        <v>300</v>
+      </c>
+      <c r="E62" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" t="s">
+        <v>302</v>
+      </c>
+      <c r="G62" t="s">
+        <v>487</v>
+      </c>
+      <c r="H62" t="s">
+        <v>567</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62" t="s">
+        <v>579</v>
+      </c>
+      <c r="K62" t="s">
+        <v>580</v>
+      </c>
+      <c r="L62" t="s">
+        <v>580</v>
+      </c>
+      <c r="M62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>136471</v>
+      </c>
+      <c r="C63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" t="s">
+        <v>488</v>
+      </c>
+      <c r="H63" t="s">
+        <v>568</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63" t="s">
+        <v>579</v>
+      </c>
+      <c r="K63" t="s">
+        <v>580</v>
+      </c>
+      <c r="L63" t="s">
+        <v>580</v>
+      </c>
+      <c r="M63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>136480</v>
+      </c>
+      <c r="C64" t="s">
+        <v>307</v>
+      </c>
+      <c r="D64" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64" t="s">
+        <v>489</v>
+      </c>
+      <c r="H64" t="s">
+        <v>569</v>
+      </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
+      <c r="J64" t="s">
+        <v>579</v>
+      </c>
+      <c r="K64" t="s">
+        <v>580</v>
+      </c>
+      <c r="L64" t="s">
+        <v>580</v>
+      </c>
+      <c r="M64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>136482</v>
+      </c>
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E65" t="s">
+        <v>313</v>
+      </c>
+      <c r="F65" t="s">
+        <v>314</v>
+      </c>
+      <c r="G65" t="s">
+        <v>490</v>
+      </c>
+      <c r="H65" t="s">
+        <v>570</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>579</v>
+      </c>
+      <c r="K65" t="s">
+        <v>580</v>
+      </c>
+      <c r="L65" t="s">
+        <v>580</v>
+      </c>
+      <c r="M65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>136483</v>
+      </c>
+      <c r="C66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E66" t="s">
+        <v>317</v>
+      </c>
+      <c r="F66" t="s">
+        <v>318</v>
+      </c>
+      <c r="G66" t="s">
+        <v>491</v>
+      </c>
+      <c r="H66" t="s">
+        <v>571</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="J66" t="s">
+        <v>579</v>
+      </c>
+      <c r="K66" t="s">
+        <v>580</v>
+      </c>
+      <c r="L66" t="s">
+        <v>580</v>
+      </c>
+      <c r="M66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>136486</v>
+      </c>
+      <c r="C67" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" t="s">
+        <v>320</v>
+      </c>
+      <c r="E67" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" t="s">
+        <v>492</v>
+      </c>
+      <c r="H67" t="s">
+        <v>572</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>579</v>
+      </c>
+      <c r="K67" t="s">
+        <v>580</v>
+      </c>
+      <c r="L67" t="s">
+        <v>580</v>
+      </c>
+      <c r="M67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>136454</v>
+      </c>
+      <c r="C68" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" t="s">
+        <v>324</v>
+      </c>
+      <c r="E68" t="s">
+        <v>325</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" t="s">
+        <v>493</v>
+      </c>
+      <c r="H68" t="s">
+        <v>573</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="J68" t="s">
+        <v>579</v>
+      </c>
+      <c r="K68" t="s">
+        <v>580</v>
+      </c>
+      <c r="L68" t="s">
+        <v>580</v>
+      </c>
+      <c r="M68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>136472</v>
+      </c>
+      <c r="C69" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" t="s">
+        <v>327</v>
+      </c>
+      <c r="E69" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" t="s">
+        <v>494</v>
+      </c>
+      <c r="H69" t="s">
+        <v>574</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>579</v>
+      </c>
+      <c r="K69" t="s">
+        <v>580</v>
+      </c>
+      <c r="L69" t="s">
+        <v>580</v>
+      </c>
+      <c r="M69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>136485</v>
+      </c>
+      <c r="C70" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" t="s">
+        <v>332</v>
+      </c>
+      <c r="F70" t="s">
+        <v>333</v>
+      </c>
+      <c r="G70" t="s">
+        <v>495</v>
+      </c>
+      <c r="H70" t="s">
+        <v>575</v>
+      </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="J70" t="s">
+        <v>579</v>
+      </c>
+      <c r="K70" t="s">
+        <v>580</v>
+      </c>
+      <c r="L70" t="s">
+        <v>580</v>
+      </c>
+      <c r="M70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>136489</v>
+      </c>
+      <c r="C71" t="s">
+        <v>334</v>
+      </c>
+      <c r="D71" t="s">
+        <v>335</v>
+      </c>
+      <c r="E71" t="s">
+        <v>336</v>
+      </c>
+      <c r="F71" t="s">
+        <v>337</v>
+      </c>
+      <c r="G71" t="s">
+        <v>496</v>
+      </c>
+      <c r="H71" t="s">
+        <v>576</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>579</v>
+      </c>
+      <c r="K71" t="s">
+        <v>580</v>
+      </c>
+      <c r="L71" t="s">
+        <v>580</v>
+      </c>
+      <c r="M71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>136481</v>
+      </c>
+      <c r="C72" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" t="s">
+        <v>340</v>
+      </c>
+      <c r="F72" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" t="s">
+        <v>497</v>
+      </c>
+      <c r="H72" t="s">
+        <v>577</v>
+      </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s">
+        <v>579</v>
+      </c>
+      <c r="K72" t="s">
+        <v>580</v>
+      </c>
+      <c r="L72" t="s">
+        <v>580</v>
+      </c>
+      <c r="M72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>500569</v>
+      </c>
+      <c r="C73" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" t="s">
+        <v>343</v>
+      </c>
+      <c r="E73" t="s">
+        <v>344</v>
+      </c>
+      <c r="F73" t="s">
+        <v>345</v>
+      </c>
+      <c r="G73" t="s">
+        <v>498</v>
+      </c>
+      <c r="H73" t="s">
+        <v>578</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>580</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
+      </c>
+      <c r="M73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>305288</v>
+      </c>
+      <c r="C74" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" t="s">
+        <v>347</v>
+      </c>
+      <c r="E74" t="s">
+        <v>581</v>
+      </c>
+      <c r="F74" t="s">
+        <v>348</v>
+      </c>
+      <c r="G74" t="s">
+        <v>582</v>
+      </c>
+      <c r="H74" t="s">
+        <v>583</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>685</v>
+      </c>
+      <c r="K74" t="s">
+        <v>689</v>
+      </c>
+      <c r="L74" t="s">
+        <v>580</v>
+      </c>
+      <c r="M74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>305290</v>
+      </c>
+      <c r="C75" t="s">
+        <v>584</v>
+      </c>
+      <c r="D75" t="s">
+        <v>585</v>
+      </c>
+      <c r="E75" t="s">
+        <v>586</v>
+      </c>
+      <c r="F75" t="s">
+        <v>587</v>
+      </c>
+      <c r="G75" t="s">
+        <v>588</v>
+      </c>
+      <c r="H75" t="s">
+        <v>589</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>685</v>
+      </c>
+      <c r="K75" t="s">
+        <v>580</v>
+      </c>
+      <c r="L75" t="s">
+        <v>580</v>
+      </c>
+      <c r="M75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>305291</v>
+      </c>
+      <c r="C76" t="s">
+        <v>686</v>
+      </c>
+      <c r="D76" t="s">
+        <v>349</v>
+      </c>
+      <c r="E76" t="s">
+        <v>590</v>
+      </c>
+      <c r="F76" t="s">
+        <v>350</v>
+      </c>
+      <c r="G76" t="s">
+        <v>591</v>
+      </c>
+      <c r="H76" t="s">
+        <v>592</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>685</v>
+      </c>
+      <c r="K76" t="s">
+        <v>689</v>
+      </c>
+      <c r="L76" t="s">
+        <v>580</v>
+      </c>
+      <c r="M76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>305292</v>
+      </c>
+      <c r="C77" t="s">
+        <v>593</v>
+      </c>
+      <c r="D77" t="s">
+        <v>594</v>
+      </c>
+      <c r="E77" t="s">
+        <v>595</v>
+      </c>
+      <c r="F77" t="s">
+        <v>596</v>
+      </c>
+      <c r="G77" t="s">
+        <v>597</v>
+      </c>
+      <c r="H77" t="s">
+        <v>598</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>685</v>
+      </c>
+      <c r="K77" t="s">
+        <v>580</v>
+      </c>
+      <c r="L77" t="s">
+        <v>580</v>
+      </c>
+      <c r="M77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>500566</v>
+      </c>
+      <c r="C78" t="s">
+        <v>351</v>
+      </c>
+      <c r="D78" t="s">
+        <v>352</v>
+      </c>
+      <c r="E78" t="s">
+        <v>599</v>
+      </c>
+      <c r="F78" t="s">
+        <v>353</v>
+      </c>
+      <c r="G78" t="s">
+        <v>600</v>
+      </c>
+      <c r="H78" t="s">
+        <v>601</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>685</v>
+      </c>
+      <c r="K78" t="s">
+        <v>689</v>
+      </c>
+      <c r="L78" t="s">
+        <v>580</v>
+      </c>
+      <c r="M78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>305295</v>
+      </c>
+      <c r="C79" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" t="s">
+        <v>602</v>
+      </c>
+      <c r="F79" t="s">
+        <v>356</v>
+      </c>
+      <c r="G79" t="s">
+        <v>499</v>
+      </c>
+      <c r="H79" t="s">
+        <v>603</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79" t="s">
+        <v>685</v>
+      </c>
+      <c r="K79" t="s">
+        <v>689</v>
+      </c>
+      <c r="L79" t="s">
+        <v>580</v>
+      </c>
+      <c r="M79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>305294</v>
+      </c>
+      <c r="C80" t="s">
+        <v>357</v>
+      </c>
+      <c r="D80" t="s">
+        <v>358</v>
+      </c>
+      <c r="E80" t="s">
+        <v>604</v>
+      </c>
+      <c r="F80" t="s">
+        <v>359</v>
+      </c>
+      <c r="G80" t="s">
+        <v>500</v>
+      </c>
+      <c r="H80" t="s">
+        <v>605</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>685</v>
+      </c>
+      <c r="K80" t="s">
+        <v>689</v>
+      </c>
+      <c r="L80" t="s">
+        <v>580</v>
+      </c>
+      <c r="M80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>305296</v>
+      </c>
+      <c r="C81" t="s">
+        <v>360</v>
+      </c>
+      <c r="D81" t="s">
+        <v>361</v>
+      </c>
+      <c r="E81" t="s">
+        <v>606</v>
+      </c>
+      <c r="F81" t="s">
+        <v>362</v>
+      </c>
+      <c r="G81" t="s">
+        <v>607</v>
+      </c>
+      <c r="H81" t="s">
+        <v>608</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>685</v>
+      </c>
+      <c r="K81" t="s">
+        <v>689</v>
+      </c>
+      <c r="L81" t="s">
+        <v>580</v>
+      </c>
+      <c r="M81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>305297</v>
+      </c>
+      <c r="C82" t="s">
+        <v>687</v>
+      </c>
+      <c r="D82" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" t="s">
+        <v>609</v>
+      </c>
+      <c r="F82" t="s">
+        <v>610</v>
+      </c>
+      <c r="G82" t="s">
+        <v>611</v>
+      </c>
+      <c r="H82" t="s">
+        <v>612</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>685</v>
+      </c>
+      <c r="K82" t="s">
+        <v>580</v>
+      </c>
+      <c r="L82" t="s">
+        <v>580</v>
+      </c>
+      <c r="M82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>305298</v>
+      </c>
+      <c r="C83" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" t="s">
+        <v>364</v>
+      </c>
+      <c r="E83" t="s">
+        <v>613</v>
+      </c>
+      <c r="F83" t="s">
+        <v>365</v>
+      </c>
+      <c r="G83" t="s">
+        <v>614</v>
+      </c>
+      <c r="H83" t="s">
+        <v>615</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" t="s">
+        <v>685</v>
+      </c>
+      <c r="K83" t="s">
+        <v>689</v>
+      </c>
+      <c r="L83" t="s">
+        <v>580</v>
+      </c>
+      <c r="M83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>500567</v>
+      </c>
+      <c r="C84" t="s">
+        <v>367</v>
+      </c>
+      <c r="D84" t="s">
+        <v>368</v>
+      </c>
+      <c r="E84" t="s">
+        <v>616</v>
+      </c>
+      <c r="F84" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" t="s">
+        <v>452</v>
+      </c>
+      <c r="H84" t="s">
+        <v>617</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>685</v>
+      </c>
+      <c r="K84" t="s">
+        <v>689</v>
+      </c>
+      <c r="L84" t="s">
+        <v>580</v>
+      </c>
+      <c r="M84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>305299</v>
+      </c>
+      <c r="C85" t="s">
+        <v>370</v>
+      </c>
+      <c r="D85" t="s">
+        <v>371</v>
+      </c>
+      <c r="E85" t="s">
+        <v>618</v>
+      </c>
+      <c r="F85" t="s">
+        <v>372</v>
+      </c>
+      <c r="G85" t="s">
+        <v>619</v>
+      </c>
+      <c r="H85" t="s">
+        <v>620</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85" t="s">
+        <v>685</v>
+      </c>
+      <c r="K85" t="s">
+        <v>689</v>
+      </c>
+      <c r="L85" t="s">
+        <v>580</v>
+      </c>
+      <c r="M85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>305300</v>
+      </c>
+      <c r="C86" t="s">
+        <v>373</v>
+      </c>
+      <c r="D86" t="s">
+        <v>374</v>
+      </c>
+      <c r="E86" t="s">
+        <v>621</v>
+      </c>
+      <c r="F86" t="s">
+        <v>375</v>
+      </c>
+      <c r="G86" t="s">
+        <v>622</v>
+      </c>
+      <c r="H86" t="s">
+        <v>623</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86" t="s">
+        <v>685</v>
+      </c>
+      <c r="K86" t="s">
+        <v>689</v>
+      </c>
+      <c r="L86" t="s">
+        <v>580</v>
+      </c>
+      <c r="M86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>305301</v>
+      </c>
+      <c r="C87" t="s">
+        <v>376</v>
+      </c>
+      <c r="D87" t="s">
+        <v>377</v>
+      </c>
+      <c r="E87" t="s">
+        <v>624</v>
+      </c>
+      <c r="F87" t="s">
+        <v>378</v>
+      </c>
+      <c r="G87" t="s">
+        <v>625</v>
+      </c>
+      <c r="H87" t="s">
+        <v>626</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87" t="s">
+        <v>685</v>
+      </c>
+      <c r="K87" t="s">
+        <v>689</v>
+      </c>
+      <c r="L87" t="s">
+        <v>580</v>
+      </c>
+      <c r="M87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>305302</v>
+      </c>
+      <c r="C88" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" t="s">
+        <v>627</v>
+      </c>
+      <c r="F88" t="s">
+        <v>381</v>
+      </c>
+      <c r="G88" t="s">
+        <v>628</v>
+      </c>
+      <c r="H88" t="s">
+        <v>629</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88" t="s">
+        <v>685</v>
+      </c>
+      <c r="K88" t="s">
+        <v>689</v>
+      </c>
+      <c r="L88" t="s">
+        <v>580</v>
+      </c>
+      <c r="M88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>305303</v>
+      </c>
+      <c r="C89" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" t="s">
+        <v>383</v>
+      </c>
+      <c r="E89" t="s">
+        <v>630</v>
+      </c>
+      <c r="F89" t="s">
+        <v>384</v>
+      </c>
+      <c r="G89" t="s">
+        <v>501</v>
+      </c>
+      <c r="H89" t="s">
+        <v>631</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>685</v>
+      </c>
+      <c r="K89" t="s">
+        <v>689</v>
+      </c>
+      <c r="L89" t="s">
+        <v>580</v>
+      </c>
+      <c r="M89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>305304</v>
+      </c>
+      <c r="C90" t="s">
+        <v>632</v>
+      </c>
+      <c r="D90" t="s">
+        <v>633</v>
+      </c>
+      <c r="E90" t="s">
+        <v>634</v>
+      </c>
+      <c r="F90" t="s">
+        <v>635</v>
+      </c>
+      <c r="G90" t="s">
+        <v>636</v>
+      </c>
+      <c r="H90" t="s">
+        <v>637</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>685</v>
+      </c>
+      <c r="K90" t="s">
+        <v>580</v>
+      </c>
+      <c r="L90" t="s">
+        <v>580</v>
+      </c>
+      <c r="M90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>500568</v>
+      </c>
+      <c r="C91" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" t="s">
+        <v>386</v>
+      </c>
+      <c r="E91" t="s">
+        <v>638</v>
+      </c>
+      <c r="F91" t="s">
+        <v>387</v>
+      </c>
+      <c r="G91" t="s">
+        <v>502</v>
+      </c>
+      <c r="H91" t="s">
+        <v>639</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+      <c r="J91" t="s">
+        <v>685</v>
+      </c>
+      <c r="K91" t="s">
+        <v>689</v>
+      </c>
+      <c r="L91" t="s">
+        <v>580</v>
+      </c>
+      <c r="M91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>305306</v>
+      </c>
+      <c r="C92" t="s">
+        <v>640</v>
+      </c>
+      <c r="D92" t="s">
+        <v>641</v>
+      </c>
+      <c r="E92" t="s">
+        <v>642</v>
+      </c>
+      <c r="F92" t="s">
+        <v>643</v>
+      </c>
+      <c r="G92" t="s">
+        <v>644</v>
+      </c>
+      <c r="H92" t="s">
+        <v>645</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="J92" t="s">
+        <v>685</v>
+      </c>
+      <c r="K92" t="s">
+        <v>580</v>
+      </c>
+      <c r="L92" t="s">
+        <v>580</v>
+      </c>
+      <c r="M92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>305307</v>
+      </c>
+      <c r="C93" t="s">
+        <v>388</v>
+      </c>
+      <c r="D93" t="s">
+        <v>389</v>
+      </c>
+      <c r="E93" t="s">
+        <v>646</v>
+      </c>
+      <c r="F93" t="s">
+        <v>390</v>
+      </c>
+      <c r="G93" t="s">
+        <v>647</v>
+      </c>
+      <c r="H93" t="s">
+        <v>648</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>685</v>
+      </c>
+      <c r="K93" t="s">
+        <v>689</v>
+      </c>
+      <c r="L93" t="s">
+        <v>580</v>
+      </c>
+      <c r="M93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>305308</v>
+      </c>
+      <c r="C94" t="s">
+        <v>391</v>
+      </c>
+      <c r="D94" t="s">
+        <v>392</v>
+      </c>
+      <c r="E94" t="s">
+        <v>649</v>
+      </c>
+      <c r="F94" t="s">
+        <v>393</v>
+      </c>
+      <c r="G94" t="s">
+        <v>650</v>
+      </c>
+      <c r="H94" t="s">
+        <v>651</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>685</v>
+      </c>
+      <c r="K94" t="s">
+        <v>689</v>
+      </c>
+      <c r="L94" t="s">
+        <v>580</v>
+      </c>
+      <c r="M94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>305309</v>
+      </c>
+      <c r="C95" t="s">
+        <v>394</v>
+      </c>
+      <c r="D95" t="s">
+        <v>395</v>
+      </c>
+      <c r="E95" t="s">
+        <v>652</v>
+      </c>
+      <c r="F95" t="s">
+        <v>396</v>
+      </c>
+      <c r="G95" t="s">
+        <v>653</v>
+      </c>
+      <c r="H95" t="s">
+        <v>654</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>685</v>
+      </c>
+      <c r="K95" t="s">
+        <v>689</v>
+      </c>
+      <c r="L95" t="s">
+        <v>580</v>
+      </c>
+      <c r="M95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>305318</v>
+      </c>
+      <c r="C96" t="s">
+        <v>397</v>
+      </c>
+      <c r="D96" t="s">
+        <v>398</v>
+      </c>
+      <c r="E96" t="s">
+        <v>655</v>
+      </c>
+      <c r="F96" t="s">
+        <v>399</v>
+      </c>
+      <c r="G96" t="s">
+        <v>503</v>
+      </c>
+      <c r="H96" t="s">
+        <v>656</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>685</v>
+      </c>
+      <c r="K96" t="s">
+        <v>689</v>
+      </c>
+      <c r="L96" t="s">
+        <v>580</v>
+      </c>
+      <c r="M96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>305311</v>
+      </c>
+      <c r="C97" t="s">
+        <v>400</v>
+      </c>
+      <c r="D97" t="s">
+        <v>401</v>
+      </c>
+      <c r="E97" t="s">
+        <v>657</v>
+      </c>
+      <c r="F97" t="s">
+        <v>402</v>
+      </c>
+      <c r="G97" t="s">
+        <v>658</v>
+      </c>
+      <c r="H97" t="s">
+        <v>659</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>685</v>
+      </c>
+      <c r="K97" t="s">
+        <v>689</v>
+      </c>
+      <c r="L97" t="s">
+        <v>580</v>
+      </c>
+      <c r="M97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>305312</v>
+      </c>
+      <c r="C98" t="s">
+        <v>403</v>
+      </c>
+      <c r="D98" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" t="s">
+        <v>660</v>
+      </c>
+      <c r="F98" t="s">
+        <v>405</v>
+      </c>
+      <c r="G98" t="s">
+        <v>661</v>
+      </c>
+      <c r="H98" t="s">
+        <v>662</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98" t="s">
+        <v>685</v>
+      </c>
+      <c r="K98" t="s">
+        <v>689</v>
+      </c>
+      <c r="L98" t="s">
+        <v>580</v>
+      </c>
+      <c r="M98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>305313</v>
+      </c>
+      <c r="C99" t="s">
+        <v>688</v>
+      </c>
+      <c r="D99" t="s">
+        <v>406</v>
+      </c>
+      <c r="E99" t="s">
+        <v>663</v>
+      </c>
+      <c r="F99" t="s">
+        <v>664</v>
+      </c>
+      <c r="G99" t="s">
+        <v>665</v>
+      </c>
+      <c r="H99" t="s">
+        <v>666</v>
+      </c>
+      <c r="I99">
+        <v>5</v>
+      </c>
+      <c r="J99" t="s">
+        <v>685</v>
+      </c>
+      <c r="K99" t="s">
+        <v>689</v>
+      </c>
+      <c r="L99" t="s">
+        <v>580</v>
+      </c>
+      <c r="M99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>319401</v>
+      </c>
+      <c r="C100" t="s">
+        <v>407</v>
+      </c>
+      <c r="D100" t="s">
+        <v>281</v>
+      </c>
+      <c r="E100" t="s">
+        <v>667</v>
+      </c>
+      <c r="F100" t="s">
+        <v>408</v>
+      </c>
+      <c r="G100" t="s">
+        <v>668</v>
+      </c>
+      <c r="H100" t="s">
+        <v>669</v>
+      </c>
+      <c r="I100">
+        <v>5</v>
+      </c>
+      <c r="J100" t="s">
+        <v>685</v>
+      </c>
+      <c r="K100" t="s">
+        <v>689</v>
+      </c>
+      <c r="L100" t="s">
+        <v>580</v>
+      </c>
+      <c r="M100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>305315</v>
+      </c>
+      <c r="C101" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" t="s">
+        <v>410</v>
+      </c>
+      <c r="E101" t="s">
+        <v>670</v>
+      </c>
+      <c r="F101" t="s">
+        <v>411</v>
+      </c>
+      <c r="G101" t="s">
+        <v>504</v>
+      </c>
+      <c r="H101" t="s">
+        <v>671</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>685</v>
+      </c>
+      <c r="K101" t="s">
+        <v>689</v>
+      </c>
+      <c r="L101" t="s">
+        <v>580</v>
+      </c>
+      <c r="M101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>305316</v>
+      </c>
+      <c r="C102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D102" t="s">
+        <v>413</v>
+      </c>
+      <c r="E102" t="s">
+        <v>672</v>
+      </c>
+      <c r="F102" t="s">
+        <v>414</v>
+      </c>
+      <c r="G102" t="s">
+        <v>673</v>
+      </c>
+      <c r="H102" t="s">
+        <v>674</v>
+      </c>
+      <c r="I102">
+        <v>6</v>
+      </c>
+      <c r="J102" t="s">
+        <v>685</v>
+      </c>
+      <c r="K102" t="s">
+        <v>689</v>
+      </c>
+      <c r="L102" t="s">
+        <v>580</v>
+      </c>
+      <c r="M102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>305317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>415</v>
+      </c>
+      <c r="D103" t="s">
+        <v>416</v>
+      </c>
+      <c r="E103" t="s">
+        <v>675</v>
+      </c>
+      <c r="F103" t="s">
+        <v>417</v>
+      </c>
+      <c r="G103" t="s">
+        <v>505</v>
+      </c>
+      <c r="H103" t="s">
+        <v>676</v>
+      </c>
+      <c r="I103">
+        <v>6</v>
+      </c>
+      <c r="J103" t="s">
+        <v>685</v>
+      </c>
+      <c r="K103" t="s">
+        <v>689</v>
+      </c>
+      <c r="L103" t="s">
+        <v>580</v>
+      </c>
+      <c r="M103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>305310</v>
+      </c>
+      <c r="C104" t="s">
+        <v>418</v>
+      </c>
+      <c r="D104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" t="s">
+        <v>677</v>
+      </c>
+      <c r="F104" t="s">
+        <v>420</v>
+      </c>
+      <c r="G104" t="s">
+        <v>678</v>
+      </c>
+      <c r="H104" t="s">
+        <v>679</v>
+      </c>
+      <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104" t="s">
+        <v>685</v>
+      </c>
+      <c r="K104" t="s">
+        <v>689</v>
+      </c>
+      <c r="L104" t="s">
+        <v>580</v>
+      </c>
+      <c r="M104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>305319</v>
+      </c>
+      <c r="C105" t="s">
+        <v>421</v>
+      </c>
+      <c r="D105" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" t="s">
+        <v>680</v>
+      </c>
+      <c r="F105" t="s">
+        <v>423</v>
+      </c>
+      <c r="G105" t="s">
+        <v>681</v>
+      </c>
+      <c r="H105" t="s">
+        <v>682</v>
+      </c>
+      <c r="I105">
+        <v>6</v>
+      </c>
+      <c r="J105" t="s">
+        <v>685</v>
+      </c>
+      <c r="K105" t="s">
+        <v>689</v>
+      </c>
+      <c r="L105" t="s">
+        <v>580</v>
+      </c>
+      <c r="M105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>500569</v>
+      </c>
+      <c r="C106" t="s">
+        <v>424</v>
+      </c>
+      <c r="D106" t="s">
+        <v>425</v>
+      </c>
+      <c r="E106" t="s">
+        <v>683</v>
+      </c>
+      <c r="F106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G106" t="s">
+        <v>506</v>
+      </c>
+      <c r="H106" t="s">
+        <v>684</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106" t="s">
+        <v>685</v>
+      </c>
+      <c r="K106" t="s">
+        <v>689</v>
+      </c>
+      <c r="L106" t="s">
+        <v>580</v>
+      </c>
+      <c r="M106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/database/sampol.xlsx
+++ b/database/sampol.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sampol\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74FDD00-C62D-4146-BC41-8BB911C8A042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C425117-04CF-47E7-954C-8F24AF5B986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="7" xr2:uid="{AFA87E45-921F-4C62-BA0A-FE034DBFB343}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{AFA87E45-921F-4C62-BA0A-FE034DBFB343}"/>
   </bookViews>
   <sheets>
     <sheet name="dailyvisitstbl" sheetId="1" r:id="rId1"/>
-    <sheet name="departmentstbl" sheetId="2" r:id="rId2"/>
-    <sheet name="filestbl" sheetId="12" r:id="rId3"/>
-    <sheet name="imagestbl" sheetId="4" r:id="rId4"/>
-    <sheet name="issuancescategorytbl_x0009_" sheetId="5" r:id="rId5"/>
-    <sheet name="issuancestbl" sheetId="6" r:id="rId6"/>
-    <sheet name="officestbl" sheetId="7" r:id="rId7"/>
-    <sheet name="schoolstbl" sheetId="8" r:id="rId8"/>
-    <sheet name="socialmediatbl" sheetId="9" r:id="rId9"/>
-    <sheet name="timelogtbl" sheetId="10" r:id="rId10"/>
-    <sheet name="userstbl" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
+    <sheet name="departmentstbl" sheetId="2" r:id="rId3"/>
+    <sheet name="filestbl" sheetId="12" r:id="rId4"/>
+    <sheet name="imagestbl" sheetId="4" r:id="rId5"/>
+    <sheet name="issuancescategorytbl_x0009_" sheetId="5" r:id="rId6"/>
+    <sheet name="issuancestbl" sheetId="6" r:id="rId7"/>
+    <sheet name="officestbl" sheetId="7" r:id="rId8"/>
+    <sheet name="schoolstbl" sheetId="8" r:id="rId9"/>
+    <sheet name="socialmediatbl" sheetId="9" r:id="rId10"/>
+    <sheet name="timelogtbl" sheetId="10" r:id="rId11"/>
+    <sheet name="userstbl" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5297" uniqueCount="828">
   <si>
     <t xml:space="preserve">daily_visitors_id </t>
   </si>
@@ -2116,14 +2117,439 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>bacfile_id</t>
+  </si>
+  <si>
+    <t>bacfile_type</t>
+  </si>
+  <si>
+    <t>bacfile_title</t>
+  </si>
+  <si>
+    <t>bacfile_link</t>
+  </si>
+  <si>
+    <t>bacfile_date</t>
+  </si>
+  <si>
+    <t>bacfile_procurementYear</t>
+  </si>
+  <si>
+    <t>bacfile_procurementType</t>
+  </si>
+  <si>
+    <t>bacfile_publishDate</t>
+  </si>
+  <si>
+    <t>bacfile_closingDate</t>
+  </si>
+  <si>
+    <t>bacfile_awardedTo</t>
+  </si>
+  <si>
+    <t>bacfile_referenceNum</t>
+  </si>
+  <si>
+    <t>bacfile_procurementMode</t>
+  </si>
+  <si>
+    <t>bacfile_status</t>
+  </si>
+  <si>
+    <t>INVITATION TO BID</t>
+  </si>
+  <si>
+    <t>BOARD AND LODGING FOR THE ASSESSORS MANUAL RESOURCE PACKAGING</t>
+  </si>
+  <si>
+    <t>https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9330364</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Procurement of Office and Janitorial Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348275</t>
+  </si>
+  <si>
+    <t>Procurement of Ink and Toners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348227</t>
+  </si>
+  <si>
+    <t>Supplies for the Evaluation of MOVs for the Year End Accomplishment cum PRIME Awarding Ceremonies for the Seal of Office Achievement Reform and Recognition 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348195</t>
+  </si>
+  <si>
+    <t>Venue and Meals for the Evaluation of MOVs for the Year End Accomplishment cum PRIME Awarding Ceremonies for the Seal of Office Achievement Reform and Recognition 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348149</t>
+  </si>
+  <si>
+    <t>Various Materials for the Schools Division Office</t>
+  </si>
+  <si>
+    <t>https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348109</t>
+  </si>
+  <si>
+    <t>Materials for the Proposed Additional Storage Room of DCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348092</t>
+  </si>
+  <si>
+    <t>Supplies and Materials for ID Printer</t>
+  </si>
+  <si>
+    <t>https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348044</t>
+  </si>
+  <si>
+    <t>Supplies and Materials for ICT Program Support</t>
+  </si>
+  <si>
+    <t>https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9348027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Procurement of ICT Supplies and Peripherals</t>
+  </si>
+  <si>
+    <t>https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9347993</t>
+  </si>
+  <si>
+    <t>Support Supplies for Bayanihan Laptops Recipients</t>
+  </si>
+  <si>
+    <t>https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9347964</t>
+  </si>
+  <si>
+    <t>Procurement of Printers for Computer Laboratories</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9347925</t>
+  </si>
+  <si>
+    <t>Procurement of Tools and Equipment for Animation NCII, Technical Drafting, Caregiving, and Computer Systems Servicing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9357535</t>
+  </si>
+  <si>
+    <t>Procurement of TVL Learning Tools and Equipment (Oven Gas Range)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9357490</t>
+  </si>
+  <si>
+    <t>Board and Lodging for the Creative, Experiental, and Reflective In-Service Training for School Heads and Divisions Office Leaders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9367451</t>
+  </si>
+  <si>
+    <t>Procurement of Various Appliances for SDO Manila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9371788</t>
+  </si>
+  <si>
+    <t>Procurement of 3-in-1 Continuous Ink Sets for Elementary Schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9372588</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Procurement of Bond Papers for Elementary Schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9372632</t>
+  </si>
+  <si>
+    <t>Procurement of Toner and Master Rolls for Elementary School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9372613</t>
+  </si>
+  <si>
+    <t>Procurement of Supplies and Materials for Various Trainings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9373941</t>
+  </si>
+  <si>
+    <t>Audio Sound System Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9377819</t>
+  </si>
+  <si>
+    <t>Supplies and Materials for the Installation of Additional Hardware in SDO Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9377842</t>
+  </si>
+  <si>
+    <t>Procurement of Face Masks and Vitamins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9377855</t>
+  </si>
+  <si>
+    <t>Procurement of Smart TV for Schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://notices.philgeps.gov.ph/GEPSNONPILOT/Tender/PrintableBidNoticeAbstractUI.aspx?refid=9377925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CY 2018 EDUCATION FACILITIES FUND (BEFF) REPAIR OF CLASSROOM </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://drive.google.com/file/d/1pdPus7q_o7orbPpu1gSIFbKrw1onrkRI/view</t>
+  </si>
+  <si>
+    <t>CY 2018 BASIC EDUCATION FACILITIES FUND REPAIR OF CLASSROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://drive.google.com/file/d/1zOxk-gRp9mo9RmWRJnfMEoHeCyGA_AHC/view</t>
+  </si>
+  <si>
+    <t>CY 2018 BASIC EDUCATION FACILITIES FUND (BEFF) REPAIR OF CLASROOM (BATCH 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://drive.google.com/file/d/10lTmtRxTC37LQ2P6TMZoJpGbN0zRfIhV/view</t>
+  </si>
+  <si>
+    <t>TRANSPARENCY BOARD</t>
+  </si>
+  <si>
+    <t>Approved Budget And Corresponding Targets</t>
+  </si>
+  <si>
+    <t>TRANSPARENCY BOARD FILES</t>
+  </si>
+  <si>
+    <t>Modification made Pursuant to the General and Special Provisions in this Act</t>
+  </si>
+  <si>
+    <t>Contracts Awarded with Suppliers, Contractors, or Consultants</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/e/2PACX-1vTNeBhR7uBec6lwJ4T7RMlkPfwy0Bc3hKhBkVZOEy7FHxlemxjYClrOm__hiO-5t70_OLZMapUUZ2gG/pubhtml?gid=98969648&amp;single=true</t>
+  </si>
+  <si>
+    <t>Major Activities or Projects, and Target Benificiaries</t>
+  </si>
+  <si>
+    <t>Status of Implementation, Evaluation, or Assesment Reports</t>
+  </si>
+  <si>
+    <t>Budget and Financial Accountability Reports</t>
+  </si>
+  <si>
+    <t>People's Freedom of Information (FOI) Manual</t>
+  </si>
+  <si>
+    <t>Annual Reports on the Status of Income Authorized bt law to be retained or used and be deposited outised of the expenditures</t>
+  </si>
+  <si>
+    <t>Agency Review and Compliance Procedure of Statements and Financial Disclosures</t>
+  </si>
+  <si>
+    <t>ARTA Scorecards</t>
+  </si>
+  <si>
+    <t>2021 Annual Procurement Plan Infrastructure</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/xCOZd6Q0vqd23jRmxCJsA0HzGjQYLXZa/1YOfaHDgMtAOgj6OzmXA_M-VAWqBbDcE-hrUASVUgHws</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>2023 Annual Procurement Plan CSE</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/xCOZdP0jx9myWTprHA1pvthxsCWx2AXl/TeFom5_PLoAc9Lq1jAXtOy3uXbnpXlu8-jLVgml0gHws</t>
+  </si>
+  <si>
+    <t>2024 Annual Procurement Plan Non-CSE</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/xCOZbg8lTWEZlQI7kPEwC9r8MKjMzT7y/WW5Fhvni3-pNeG0AwSFLWFUO9zOabpV6-m7Wg32UgHws</t>
+  </si>
+  <si>
+    <t>SDO Manila Annual Procurement Plan for FY 2024 (MOOE)</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/xCOZcjzhefIjTSVvnYZe3aGuDnW20m53/WmOmepwo3bkCkJR6u-Mj7JxIDkxnji2d-vbWgrYggHws</t>
+  </si>
+  <si>
+    <t>SDO Manila Annual Procurement Plan for FY 2024 (HRTD)</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/xCOZcMQzrDSu3e56Mny1e8HSWcxlUxwu/gaRVjI3S_UMtCyN1ra1LjkcOQTS8hOdd-t7UA0oIgHws</t>
+  </si>
+  <si>
+    <t>APP_CSE_SDO-MANILA_2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4TyBX0j9XqAZU65sd7hmRVxl7XuAohu/CabLGT8Vz1SjgWK3LKHeF3quR95zMnr2-X7nA0PD8GAs</t>
+  </si>
+  <si>
+    <t>APP-CSE-2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4TyC4MawGhrMcXn5h2GFApbFptDUOkm/mhtLG8Vvprmzect8XqWuldVu8Eff-oS--Gbrg7Vf9GAs</t>
+  </si>
+  <si>
+    <t>APP-CSE-2024-Form</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4TyAn1i4wRfi9U55jrt065uCUfwIdqg/0ki3tnVwTptea893NUsExuaiT25Ux4XG-JLoAVl39GAs</t>
+  </si>
+  <si>
+    <t>APP-CSE-2024</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4TyCci3gETL3GkoC9Cuv5FQWuVCbZXr/jUaOLADh5CN50FxPEG0Xf2XV6wCb1NCQ-MrqAmWL9GAs</t>
+  </si>
+  <si>
+    <t>2022-APCPI-D.O.-Manila</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4VuNJiAkjeLA2nbMLsbKN4EIXlhVbTp/d-rbjywjrUIvg-wHXYRHld_IzYABSB6--97KAsSADGQs</t>
+  </si>
+  <si>
+    <t>APCPI</t>
+  </si>
+  <si>
+    <t>APCPI-2022</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4Vu8u8vHPCY6JkkthLDpc14CjV3kAZL/a7NVzMtI9HbwT03I5fzx_cb6ZpXw215F-DbMAQywDGQs</t>
+  </si>
+  <si>
+    <t>2023-APCPI-SDO-Manila</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4W2KWt4PzsgGIYhQD5EwkEAmUaQy42x/U6N87okaSlC9oTBxxjt6He7kUxTEB8FN-vrOgXY4DGQs</t>
+  </si>
+  <si>
+    <t>APCPI-2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4W2JBICbqRnlfaLCCh90Bcw4KUkPD1g/tX2fuGUCRvZryTn3OlUAkY9VSLnLAjWF-0LMAMZgDGQs</t>
+  </si>
+  <si>
+    <t>PMR-2022</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4W4lLQJjl9TnQDlNHdFHAJV5BDuBGsL/Kc_P_fMnDvZsawb1F6sdbi6m8R7mZCAT-LbQgzrADGQs</t>
+  </si>
+  <si>
+    <t>PMR</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4W4kVcWUqn5znCNg1EszOC80KZBNt8T/qNWxvdLD35VkinYu2Gg7xu-hgR_vFYqD-PLTgeLoDGQs</t>
+  </si>
+  <si>
+    <t>PMR-2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4W4lmOD62RhryVcDhAWbL05LXBIwDC8/W_zERhkwVErPwchtehzYfmesAFay-mDH-TrSACcMDGQs</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4W7yAIXRGscix9RP7i6muJWQ6h1PDBI/XY2jsBGQFY2xHV81BJsu9dsmp5d6iNJe-fbTgRtQDGQs</t>
+  </si>
+  <si>
+    <t>EPA-for-FY-2024</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4W9Zw1A0CkW4DhPSlkNXw6IR8OafLQS/2VYj8WC3Qi4zFFBHNfmLGC_3hhM_v_2b-urRAyukDGQs</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-EPA-2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4fylfGC0qImnzvTlxtJHVBy03kuIbcR/R_hoHzMMJobQHDsu1xXn08zht4FgMYsH-Ib0gSWUjGQs</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-EPA-2024</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4gCN1UpdVS1kBdxDYomaGEP1YKCwgwY/nzt6V6jIo8k-T342lBTWcXPbv1Uc1J7n-rr2gKRYkGQs</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-PMR-2022</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4gEOkNSZvGUscdl2wcZjpkGR8Aq2ZO3/u1T39q7rHZwac-u7u4in80Gr2AK9xe5h-372AkjIkGQs</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-PMR-2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4gEP2GBm6JQ4S1OJu0Yuj17zJSdu1Rh/7Pap-6h5cWLRbbQp4Z6OgoCQ9BRHg468-973AvkIkGQs</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-APP-2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4gHr7vRp9L4OkTAgBaY3qMc3h53VroQ/RsWSCD7RtvwCVv6hdYh_hkmqp4pZeubT-Kb5AXmAkGQs</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-APP-2024</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4gHqgokts3PDbpJY5oULZPNzBdsQtTr/sL1kQY31eupL_8uFYNgO_aGhSKplkUzt-M74AHmkkGQs</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-APCPI-2022</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4gK0BgGi2ssMK8z2dMSKn5rrDPmUI7k/KldtXLQCpxPVTR4C2jMntTQuWKMhdurT-Xr7g6nokGQs</t>
+  </si>
+  <si>
+    <t>Posting-Certification-for-APCPI-2023</t>
+  </si>
+  <si>
+    <t>http://depedmanila.net:5000/d/s/x4gK0VYBofQvl5qr5jpkvzxEhKTYe09s/VnqtSsSZYItz_pvCSeWTQCxaAVzQOvTZ-br5gEoYkGQs</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>PROCUREMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd\ h:mm"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -2151,8 +2577,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2490,7 +2920,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,7 +2951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADC44B3-0F39-470F-95EE-ED145020DA44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36118C-67D7-4515-9799-E94029B61C0A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2533,6 +2963,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADC44B3-0F39-470F-95EE-ED145020DA44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C34DC8-1F2D-48FA-9879-95F928C88EB9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2548,6 +2992,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27271B31-7E66-4E51-BA2E-211C44A22A67}">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="158.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="166.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G2" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44903</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44908</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K2">
+        <v>9330364</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G3" t="s">
+        <v>826</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K3">
+        <v>9348275</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G4" t="s">
+        <v>826</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K4">
+        <v>9348227</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" t="s">
+        <v>826</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K5">
+        <v>9348195</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C6" t="s">
+        <v>713</v>
+      </c>
+      <c r="D6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G6" t="s">
+        <v>826</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K6">
+        <v>9348149</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G7" t="s">
+        <v>826</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K7">
+        <v>9348109</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C8" t="s">
+        <v>717</v>
+      </c>
+      <c r="D8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G8" t="s">
+        <v>826</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K8">
+        <v>9348092</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D9" t="s">
+        <v>720</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G9" t="s">
+        <v>826</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K9">
+        <v>9348044</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D10" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G10" t="s">
+        <v>826</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K10">
+        <v>9348027</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C11" t="s">
+        <v>723</v>
+      </c>
+      <c r="D11" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G11" t="s">
+        <v>826</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K11">
+        <v>9347993</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>703</v>
+      </c>
+      <c r="C12" t="s">
+        <v>725</v>
+      </c>
+      <c r="D12" t="s">
+        <v>726</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G12" t="s">
+        <v>826</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K12">
+        <v>9347964</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" t="s">
+        <v>727</v>
+      </c>
+      <c r="D13" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G13" t="s">
+        <v>826</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44909</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44914</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K13">
+        <v>9347925</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>703</v>
+      </c>
+      <c r="C14" t="s">
+        <v>729</v>
+      </c>
+      <c r="D14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G14" t="s">
+        <v>826</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44911</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44915</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K14">
+        <v>9357535</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" t="s">
+        <v>731</v>
+      </c>
+      <c r="D15" t="s">
+        <v>732</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G15" t="s">
+        <v>826</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44911</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44915</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K15">
+        <v>9357490</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>703</v>
+      </c>
+      <c r="C16" t="s">
+        <v>733</v>
+      </c>
+      <c r="D16" t="s">
+        <v>734</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G16" t="s">
+        <v>826</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44916</v>
+      </c>
+      <c r="I16" s="3">
+        <v>44921</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K16">
+        <v>9367451</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>703</v>
+      </c>
+      <c r="C17" t="s">
+        <v>735</v>
+      </c>
+      <c r="D17" t="s">
+        <v>736</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G17" t="s">
+        <v>826</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44917</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K17">
+        <v>9371788</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" t="s">
+        <v>737</v>
+      </c>
+      <c r="D18" t="s">
+        <v>738</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G18" t="s">
+        <v>826</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44917</v>
+      </c>
+      <c r="I18" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K18">
+        <v>9372588</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" t="s">
+        <v>739</v>
+      </c>
+      <c r="D19" t="s">
+        <v>740</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G19" t="s">
+        <v>826</v>
+      </c>
+      <c r="H19" s="3">
+        <v>44917</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K19">
+        <v>9372632</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C20" t="s">
+        <v>741</v>
+      </c>
+      <c r="D20" t="s">
+        <v>742</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G20" t="s">
+        <v>826</v>
+      </c>
+      <c r="H20" s="3">
+        <v>44917</v>
+      </c>
+      <c r="I20" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K20">
+        <v>9372613</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>703</v>
+      </c>
+      <c r="C21" t="s">
+        <v>743</v>
+      </c>
+      <c r="D21" t="s">
+        <v>744</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G21" t="s">
+        <v>826</v>
+      </c>
+      <c r="H21" s="3">
+        <v>44918</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44923</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K21">
+        <v>9373941</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>703</v>
+      </c>
+      <c r="C22" t="s">
+        <v>745</v>
+      </c>
+      <c r="D22" t="s">
+        <v>746</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G22" t="s">
+        <v>826</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44919</v>
+      </c>
+      <c r="I22" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K22">
+        <v>9377819</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>703</v>
+      </c>
+      <c r="C23" t="s">
+        <v>747</v>
+      </c>
+      <c r="D23" t="s">
+        <v>748</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G23" t="s">
+        <v>826</v>
+      </c>
+      <c r="H23" s="3">
+        <v>44919</v>
+      </c>
+      <c r="I23" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K23">
+        <v>9377842</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>703</v>
+      </c>
+      <c r="C24" t="s">
+        <v>749</v>
+      </c>
+      <c r="D24" t="s">
+        <v>750</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G24" t="s">
+        <v>826</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44919</v>
+      </c>
+      <c r="I24" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K24">
+        <v>9377855</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>703</v>
+      </c>
+      <c r="C25" t="s">
+        <v>751</v>
+      </c>
+      <c r="D25" t="s">
+        <v>752</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G25" t="s">
+        <v>826</v>
+      </c>
+      <c r="H25" s="3">
+        <v>44919</v>
+      </c>
+      <c r="I25" s="3">
+        <v>44922</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K25">
+        <v>9377925</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C26" t="s">
+        <v>753</v>
+      </c>
+      <c r="D26" t="s">
+        <v>754</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G26" t="s">
+        <v>826</v>
+      </c>
+      <c r="H26" s="3">
+        <v>43175</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45141</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>703</v>
+      </c>
+      <c r="C27" t="s">
+        <v>755</v>
+      </c>
+      <c r="D27" t="s">
+        <v>756</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G27" t="s">
+        <v>826</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43164</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45141</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>703</v>
+      </c>
+      <c r="C28" t="s">
+        <v>757</v>
+      </c>
+      <c r="D28" t="s">
+        <v>758</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43259</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45143</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>759</v>
+      </c>
+      <c r="C29" t="s">
+        <v>760</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G29" t="s">
+        <v>761</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>759</v>
+      </c>
+      <c r="C30" t="s">
+        <v>762</v>
+      </c>
+      <c r="D30" t="s">
+        <v>764</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G30" t="s">
+        <v>761</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>759</v>
+      </c>
+      <c r="C31" t="s">
+        <v>763</v>
+      </c>
+      <c r="D31" t="s">
+        <v>764</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G31" t="s">
+        <v>761</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>759</v>
+      </c>
+      <c r="C32" t="s">
+        <v>765</v>
+      </c>
+      <c r="D32" t="s">
+        <v>764</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G32" t="s">
+        <v>761</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>759</v>
+      </c>
+      <c r="C33" t="s">
+        <v>766</v>
+      </c>
+      <c r="D33" t="s">
+        <v>764</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G33" t="s">
+        <v>761</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C34" t="s">
+        <v>767</v>
+      </c>
+      <c r="D34" t="s">
+        <v>764</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G34" t="s">
+        <v>761</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>759</v>
+      </c>
+      <c r="C35" t="s">
+        <v>768</v>
+      </c>
+      <c r="D35" t="s">
+        <v>764</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G35" t="s">
+        <v>761</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>759</v>
+      </c>
+      <c r="C36" t="s">
+        <v>769</v>
+      </c>
+      <c r="D36" t="s">
+        <v>764</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G36" t="s">
+        <v>761</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>759</v>
+      </c>
+      <c r="C37" t="s">
+        <v>770</v>
+      </c>
+      <c r="D37" t="s">
+        <v>764</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G37" t="s">
+        <v>761</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>759</v>
+      </c>
+      <c r="C38" t="s">
+        <v>771</v>
+      </c>
+      <c r="D38" t="s">
+        <v>764</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G38" t="s">
+        <v>761</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="M38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>827</v>
+      </c>
+      <c r="C39" t="s">
+        <v>772</v>
+      </c>
+      <c r="D39" t="s">
+        <v>773</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F39">
+        <v>2021</v>
+      </c>
+      <c r="G39" t="s">
+        <v>774</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L39" t="s">
+        <v>774</v>
+      </c>
+      <c r="M39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>827</v>
+      </c>
+      <c r="C40" t="s">
+        <v>775</v>
+      </c>
+      <c r="D40" t="s">
+        <v>776</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F40">
+        <v>2023</v>
+      </c>
+      <c r="G40" t="s">
+        <v>774</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L40" t="s">
+        <v>774</v>
+      </c>
+      <c r="M40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>827</v>
+      </c>
+      <c r="C41" t="s">
+        <v>777</v>
+      </c>
+      <c r="D41" t="s">
+        <v>778</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F41">
+        <v>2024</v>
+      </c>
+      <c r="G41" t="s">
+        <v>774</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L41" t="s">
+        <v>774</v>
+      </c>
+      <c r="M41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>827</v>
+      </c>
+      <c r="C42" t="s">
+        <v>779</v>
+      </c>
+      <c r="D42" t="s">
+        <v>780</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F42">
+        <v>2024</v>
+      </c>
+      <c r="G42" t="s">
+        <v>774</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L42" t="s">
+        <v>774</v>
+      </c>
+      <c r="M42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>827</v>
+      </c>
+      <c r="C43" t="s">
+        <v>781</v>
+      </c>
+      <c r="D43" t="s">
+        <v>782</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F43">
+        <v>2024</v>
+      </c>
+      <c r="G43" t="s">
+        <v>774</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L43" t="s">
+        <v>774</v>
+      </c>
+      <c r="M43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>827</v>
+      </c>
+      <c r="C44" t="s">
+        <v>783</v>
+      </c>
+      <c r="D44" t="s">
+        <v>784</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F44">
+        <v>2023</v>
+      </c>
+      <c r="G44" t="s">
+        <v>774</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L44" t="s">
+        <v>774</v>
+      </c>
+      <c r="M44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>827</v>
+      </c>
+      <c r="C45" t="s">
+        <v>785</v>
+      </c>
+      <c r="D45" t="s">
+        <v>786</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F45">
+        <v>2023</v>
+      </c>
+      <c r="G45" t="s">
+        <v>774</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L45" t="s">
+        <v>774</v>
+      </c>
+      <c r="M45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>827</v>
+      </c>
+      <c r="C46" t="s">
+        <v>787</v>
+      </c>
+      <c r="D46" t="s">
+        <v>788</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F46">
+        <v>2024</v>
+      </c>
+      <c r="G46" t="s">
+        <v>774</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L46" t="s">
+        <v>774</v>
+      </c>
+      <c r="M46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>827</v>
+      </c>
+      <c r="C47" t="s">
+        <v>789</v>
+      </c>
+      <c r="D47" t="s">
+        <v>790</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F47">
+        <v>2024</v>
+      </c>
+      <c r="G47" t="s">
+        <v>774</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L47" t="s">
+        <v>774</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>827</v>
+      </c>
+      <c r="C48" t="s">
+        <v>791</v>
+      </c>
+      <c r="D48" t="s">
+        <v>792</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F48">
+        <v>2022</v>
+      </c>
+      <c r="G48" t="s">
+        <v>793</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L48" t="s">
+        <v>793</v>
+      </c>
+      <c r="M48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>827</v>
+      </c>
+      <c r="C49" t="s">
+        <v>794</v>
+      </c>
+      <c r="D49" t="s">
+        <v>795</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F49">
+        <v>2022</v>
+      </c>
+      <c r="G49" t="s">
+        <v>793</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L49" t="s">
+        <v>793</v>
+      </c>
+      <c r="M49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>827</v>
+      </c>
+      <c r="C50" t="s">
+        <v>796</v>
+      </c>
+      <c r="D50" t="s">
+        <v>797</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F50">
+        <v>2023</v>
+      </c>
+      <c r="G50" t="s">
+        <v>793</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L50" t="s">
+        <v>793</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>827</v>
+      </c>
+      <c r="C51" t="s">
+        <v>798</v>
+      </c>
+      <c r="D51" t="s">
+        <v>799</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F51">
+        <v>2023</v>
+      </c>
+      <c r="G51" t="s">
+        <v>793</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L51" t="s">
+        <v>793</v>
+      </c>
+      <c r="M51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>827</v>
+      </c>
+      <c r="C52" t="s">
+        <v>800</v>
+      </c>
+      <c r="D52" t="s">
+        <v>801</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F52">
+        <v>2022</v>
+      </c>
+      <c r="G52" t="s">
+        <v>802</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L52" t="s">
+        <v>802</v>
+      </c>
+      <c r="M52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>827</v>
+      </c>
+      <c r="C53" t="s">
+        <v>800</v>
+      </c>
+      <c r="D53" t="s">
+        <v>803</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F53">
+        <v>2022</v>
+      </c>
+      <c r="G53" t="s">
+        <v>802</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L53" t="s">
+        <v>802</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>827</v>
+      </c>
+      <c r="C54" t="s">
+        <v>804</v>
+      </c>
+      <c r="D54" t="s">
+        <v>805</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F54">
+        <v>2023</v>
+      </c>
+      <c r="G54" t="s">
+        <v>802</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L54" t="s">
+        <v>802</v>
+      </c>
+      <c r="M54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>827</v>
+      </c>
+      <c r="C55" t="s">
+        <v>804</v>
+      </c>
+      <c r="D55" t="s">
+        <v>806</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F55">
+        <v>2023</v>
+      </c>
+      <c r="G55" t="s">
+        <v>802</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L55" t="s">
+        <v>802</v>
+      </c>
+      <c r="M55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>827</v>
+      </c>
+      <c r="C56" t="s">
+        <v>807</v>
+      </c>
+      <c r="D56" t="s">
+        <v>808</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F56">
+        <v>2024</v>
+      </c>
+      <c r="G56" t="s">
+        <v>809</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L56" t="s">
+        <v>809</v>
+      </c>
+      <c r="M56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>827</v>
+      </c>
+      <c r="C57" t="s">
+        <v>810</v>
+      </c>
+      <c r="D57" t="s">
+        <v>811</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F57">
+        <v>2023</v>
+      </c>
+      <c r="G57" t="s">
+        <v>809</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L57" t="s">
+        <v>809</v>
+      </c>
+      <c r="M57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>827</v>
+      </c>
+      <c r="C58" t="s">
+        <v>812</v>
+      </c>
+      <c r="D58" t="s">
+        <v>813</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F58">
+        <v>2024</v>
+      </c>
+      <c r="G58" t="s">
+        <v>809</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L58" t="s">
+        <v>809</v>
+      </c>
+      <c r="M58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>827</v>
+      </c>
+      <c r="C59" t="s">
+        <v>814</v>
+      </c>
+      <c r="D59" t="s">
+        <v>815</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F59">
+        <v>2022</v>
+      </c>
+      <c r="G59" t="s">
+        <v>802</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L59" t="s">
+        <v>802</v>
+      </c>
+      <c r="M59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>827</v>
+      </c>
+      <c r="C60" t="s">
+        <v>816</v>
+      </c>
+      <c r="D60" t="s">
+        <v>817</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F60">
+        <v>2023</v>
+      </c>
+      <c r="G60" t="s">
+        <v>802</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L60" t="s">
+        <v>802</v>
+      </c>
+      <c r="M60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>827</v>
+      </c>
+      <c r="C61" t="s">
+        <v>818</v>
+      </c>
+      <c r="D61" t="s">
+        <v>819</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F61">
+        <v>2023</v>
+      </c>
+      <c r="G61" t="s">
+        <v>774</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L61" t="s">
+        <v>774</v>
+      </c>
+      <c r="M61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>827</v>
+      </c>
+      <c r="C62" t="s">
+        <v>820</v>
+      </c>
+      <c r="D62" t="s">
+        <v>821</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F62">
+        <v>2024</v>
+      </c>
+      <c r="G62" t="s">
+        <v>774</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L62" t="s">
+        <v>774</v>
+      </c>
+      <c r="M62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>827</v>
+      </c>
+      <c r="C63" t="s">
+        <v>822</v>
+      </c>
+      <c r="D63" t="s">
+        <v>823</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F63">
+        <v>2022</v>
+      </c>
+      <c r="G63" t="s">
+        <v>793</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L63" t="s">
+        <v>793</v>
+      </c>
+      <c r="M63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>827</v>
+      </c>
+      <c r="C64" t="s">
+        <v>824</v>
+      </c>
+      <c r="D64" t="s">
+        <v>825</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F64">
+        <v>2023</v>
+      </c>
+      <c r="G64" t="s">
+        <v>793</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="L64" t="s">
+        <v>793</v>
+      </c>
+      <c r="M64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5E83F7-2A23-473A-9E1E-5A71B0199DFE}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2586,7 +5686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10F4076-D521-4F94-AAFF-8F46E9FBDFB9}">
   <dimension ref="A1:N1"/>
   <sheetViews>
@@ -2660,7 +5760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBDA85E-BDBA-4744-B9C4-D3993C60075A}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -2703,7 +5803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F1600B-0478-4EB1-ADD7-F4335ACE7B23}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2734,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97752762-C807-4A6C-8E2A-DC0DCC77CC20}">
   <dimension ref="A1:H3523"/>
   <sheetViews>
@@ -30960,7 +34060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50C1668-ECA0-4616-B734-0335E22CF316}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -31019,11 +34119,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DE8426-B8CF-4E61-9189-DC1E12015617}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
@@ -35079,16 +38179,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C36118C-67D7-4515-9799-E94029B61C0A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>